--- a/capiq_data/in_process_data/IQ184945.xlsx
+++ b/capiq_data/in_process_data/IQ184945.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A595247B-D143-4E50-BC62-20C41977BD0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E90881-4448-45DB-9EEF-99528BC39498}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"3f75b43b-23fd-4982-afc4-36d2ea3e569e"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"0897d98f-4ff6-478e-9f72-7bce8be14da3"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-11.359</v>
+        <v>79.819980000000001</v>
       </c>
       <c r="D2">
-        <v>3853.75</v>
+        <v>1009.47776</v>
       </c>
       <c r="E2">
-        <v>1439.828</v>
+        <v>350.18432999999999</v>
       </c>
       <c r="F2">
-        <v>132.54300000000001</v>
+        <v>161.55440999999999</v>
       </c>
       <c r="G2">
-        <v>5861.1750000000002</v>
+        <v>1379.5290500000001</v>
       </c>
       <c r="H2">
-        <v>13921.91</v>
+        <v>3710.8676999999998</v>
       </c>
       <c r="I2">
-        <v>833.70299999999997</v>
+        <v>203.33408</v>
       </c>
       <c r="J2">
-        <v>4280.2</v>
+        <v>460.45</v>
       </c>
       <c r="K2">
-        <v>76.328000000000003</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,81 +892,81 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1504.4380000000001</v>
+        <v>558.06844999999998</v>
       </c>
       <c r="O2">
-        <v>6591.2160000000003</v>
+        <v>1278.5726099999999</v>
       </c>
       <c r="P2">
-        <v>4356.5280000000002</v>
+        <v>460.45</v>
       </c>
       <c r="Q2">
-        <v>-524.68700000000001</v>
+        <v>185.69990000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>20500</v>
+        <v>7900</v>
       </c>
       <c r="T2">
-        <v>7330.6940000000004</v>
+        <v>2432.2950999999998</v>
       </c>
       <c r="U2">
-        <v>1325.4059999999999</v>
+        <v>490.57628</v>
       </c>
       <c r="V2">
-        <v>657.16300000000001</v>
+        <v>236.09938</v>
       </c>
       <c r="W2">
-        <v>-114.419</v>
+        <v>-11.62299</v>
       </c>
       <c r="X2">
-        <v>484.98099999999999</v>
+        <v>33.934649999999998</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-968.34699999999998</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>-11.359</v>
+        <v>79.819980000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40635</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>159.84100000000001</v>
+        <v>32.738979999999998</v>
       </c>
       <c r="D3">
-        <v>4833.9340000000002</v>
+        <v>1028.0177200000001</v>
       </c>
       <c r="E3">
-        <v>1704.789</v>
+        <v>391.40994000000001</v>
       </c>
       <c r="F3">
-        <v>423.73500000000001</v>
+        <v>84.245329999999996</v>
       </c>
       <c r="G3">
-        <v>6295.61</v>
+        <v>1297.10292</v>
       </c>
       <c r="H3">
-        <v>14344.446</v>
+        <v>3694.3085700000001</v>
       </c>
       <c r="I3">
-        <v>1056.7560000000001</v>
+        <v>231.72899000000001</v>
       </c>
       <c r="J3">
-        <v>4280.2</v>
+        <v>460.45</v>
       </c>
       <c r="K3">
-        <v>74.465000000000003</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,81 +975,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1787.626</v>
+        <v>545.14916000000005</v>
       </c>
       <c r="O3">
-        <v>6890.8549999999996</v>
+        <v>1274.35041</v>
       </c>
       <c r="P3">
-        <v>4354.665</v>
+        <v>460.45</v>
       </c>
       <c r="Q3">
-        <v>-172.46199999999999</v>
+        <v>-158.58321000000001</v>
       </c>
       <c r="R3">
-        <v>40635</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>7453.5910000000003</v>
+        <v>2419.9581499999999</v>
       </c>
       <c r="U3">
-        <v>1152.944</v>
+        <v>331.99306999999999</v>
       </c>
       <c r="V3">
-        <v>47.494999999999997</v>
+        <v>89.824799999999996</v>
       </c>
       <c r="W3">
-        <v>-115.233</v>
+        <v>-13.19107</v>
       </c>
       <c r="X3">
-        <v>-138.97499999999999</v>
+        <v>-87.139340000000004</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-13.923999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>159.84100000000001</v>
+        <v>32.738979999999998</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40726</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>299.77300000000002</v>
+        <v>33.292859999999997</v>
       </c>
       <c r="D4">
-        <v>5107.8090000000002</v>
+        <v>1078.5748699999999</v>
       </c>
       <c r="E4">
-        <v>1837.175</v>
+        <v>408.71348</v>
       </c>
       <c r="F4">
-        <v>649.45000000000005</v>
+        <v>100.01173</v>
       </c>
       <c r="G4">
-        <v>6716.4949999999999</v>
+        <v>1376.97649</v>
       </c>
       <c r="H4">
-        <v>14733.549000000001</v>
+        <v>3752.6579999999999</v>
       </c>
       <c r="I4">
-        <v>1060.0360000000001</v>
+        <v>242.94550000000001</v>
       </c>
       <c r="J4">
-        <v>4280.2</v>
+        <v>460.45</v>
       </c>
       <c r="K4">
-        <v>98.173000000000002</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2002.6849999999999</v>
+        <v>589.89930000000004</v>
       </c>
       <c r="O4">
-        <v>7058.1580000000004</v>
+        <v>1326.0740499999999</v>
       </c>
       <c r="P4">
-        <v>4378.3729999999996</v>
+        <v>460.45</v>
       </c>
       <c r="Q4">
-        <v>36.6</v>
+        <v>53.177570000000003</v>
       </c>
       <c r="R4">
-        <v>40726</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>7675.3909999999996</v>
+        <v>2426.5839500000002</v>
       </c>
       <c r="U4">
-        <v>1189.5440000000001</v>
+        <v>385.17063999999999</v>
       </c>
       <c r="V4">
-        <v>245.227</v>
+        <v>149.47201000000001</v>
       </c>
       <c r="W4">
-        <v>-115.328</v>
+        <v>-13.23386</v>
       </c>
       <c r="X4">
-        <v>-130.495</v>
+        <v>-32.186549999999997</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>25.024000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>299.77300000000002</v>
+        <v>33.292859999999997</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40817</v>
+        <v>37163</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>181.518</v>
+        <v>20.463280000000001</v>
       </c>
       <c r="D5">
-        <v>5252.1440000000002</v>
+        <v>1053.0880400000001</v>
       </c>
       <c r="E5">
-        <v>1838.126</v>
+        <v>391.00407999999999</v>
       </c>
       <c r="F5">
-        <v>458.13</v>
+        <v>99.833500000000001</v>
       </c>
       <c r="G5">
-        <v>6893.8959999999997</v>
+        <v>1443.2738099999999</v>
       </c>
       <c r="H5">
-        <v>14807.264999999999</v>
+        <v>3811.8784000000001</v>
       </c>
       <c r="I5">
-        <v>1175.1949999999999</v>
+        <v>260.15748000000002</v>
       </c>
       <c r="J5">
-        <v>3930.2</v>
+        <v>460.45</v>
       </c>
       <c r="K5">
-        <v>7.6239999999999997</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2358.085</v>
+        <v>628.26999000000001</v>
       </c>
       <c r="O5">
-        <v>7128.0839999999998</v>
+        <v>1359.5370600000001</v>
       </c>
       <c r="P5">
-        <v>4287.8239999999996</v>
+        <v>460.45</v>
       </c>
       <c r="Q5">
-        <v>-88.106999999999999</v>
+        <v>85.970839999999995</v>
       </c>
       <c r="R5">
-        <v>40817</v>
+        <v>37163</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>7679.1809999999996</v>
+        <v>2452.3413399999999</v>
       </c>
       <c r="U5">
-        <v>1101.4369999999999</v>
+        <v>471.14148</v>
       </c>
       <c r="V5">
-        <v>390.762</v>
+        <v>174.30023</v>
       </c>
       <c r="W5">
-        <v>-115.444</v>
+        <v>-13.20933</v>
       </c>
       <c r="X5">
-        <v>-100.379</v>
+        <v>-19.62791</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-231.70500000000001</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>181.518</v>
+        <v>20.463280000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>137.05600000000001</v>
+        <v>26.465890000000002</v>
       </c>
       <c r="D6">
-        <v>4829.6769999999997</v>
+        <v>1174.02612</v>
       </c>
       <c r="E6">
-        <v>1710.7729999999999</v>
+        <v>330.85507000000001</v>
       </c>
       <c r="F6">
-        <v>350.10500000000002</v>
+        <v>87.749639999999999</v>
       </c>
       <c r="G6">
-        <v>6708.0810000000001</v>
+        <v>1373.6659199999999</v>
       </c>
       <c r="H6">
-        <v>14570.35</v>
+        <v>3759.34818</v>
       </c>
       <c r="I6">
-        <v>905.04499999999996</v>
+        <v>189.23505</v>
       </c>
       <c r="J6">
-        <v>3630.2</v>
+        <v>460.45</v>
       </c>
       <c r="K6">
-        <v>55.426000000000002</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,81 +1224,81 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2396.0590000000002</v>
+        <v>484.15872999999999</v>
       </c>
       <c r="O6">
-        <v>6863.77</v>
+        <v>1274.0008700000001</v>
       </c>
       <c r="P6">
-        <v>4335.6260000000002</v>
+        <v>460.45</v>
       </c>
       <c r="Q6">
-        <v>99.207999999999998</v>
+        <v>-8.7929300000000001</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>20800</v>
+        <v>8400</v>
       </c>
       <c r="T6">
-        <v>7706.58</v>
+        <v>2485.3473100000001</v>
       </c>
       <c r="U6">
-        <v>1200.645</v>
+        <v>462.34854999999999</v>
       </c>
       <c r="V6">
-        <v>347.56900000000002</v>
+        <v>81.518289999999993</v>
       </c>
       <c r="W6">
-        <v>-115.51300000000001</v>
+        <v>-13.22847</v>
       </c>
       <c r="X6">
-        <v>-125.173</v>
+        <v>-23.989719999999998</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-34.363999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>137.05600000000001</v>
+        <v>26.465890000000002</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>145.10400000000001</v>
+        <v>20.2623</v>
       </c>
       <c r="D7">
-        <v>5072.5940000000001</v>
+        <v>1080.63698</v>
       </c>
       <c r="E7">
-        <v>1791.6949999999999</v>
+        <v>360.46647000000002</v>
       </c>
       <c r="F7">
-        <v>380.52699999999999</v>
+        <v>100.89936</v>
       </c>
       <c r="G7">
-        <v>6859.4849999999997</v>
+        <v>1395.4298899999999</v>
       </c>
       <c r="H7">
-        <v>14814.465</v>
+        <v>3755.8058599999999</v>
       </c>
       <c r="I7">
-        <v>1118.133</v>
+        <v>250.90969999999999</v>
       </c>
       <c r="J7">
-        <v>3630.2</v>
+        <v>460.45</v>
       </c>
       <c r="K7">
-        <v>78.34</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,81 +1307,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2549.047</v>
+        <v>550.00603000000001</v>
       </c>
       <c r="O7">
-        <v>7018.7629999999999</v>
+        <v>1334.37987</v>
       </c>
       <c r="P7">
-        <v>4358.54</v>
+        <v>460.45</v>
       </c>
       <c r="Q7">
-        <v>-20.831</v>
+        <v>-6.1316300000000004</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>7795.7020000000002</v>
+        <v>2421.4259999999999</v>
       </c>
       <c r="U7">
-        <v>1179.8140000000001</v>
+        <v>456.21690999999998</v>
       </c>
       <c r="V7">
-        <v>201.81899999999999</v>
+        <v>158.23003</v>
       </c>
       <c r="W7">
-        <v>-116.325</v>
+        <v>-14.82606</v>
       </c>
       <c r="X7">
-        <v>-138.59100000000001</v>
+        <v>-113.93386</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>126.215</v>
+        <v>-2.3304999999999998</v>
       </c>
       <c r="AA7">
-        <v>145.10400000000001</v>
+        <v>20.2623</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>112.29900000000001</v>
+        <v>59.7483</v>
       </c>
       <c r="D8">
-        <v>5104.1989999999996</v>
+        <v>1198.0322100000001</v>
       </c>
       <c r="E8">
-        <v>1919.4649999999999</v>
+        <v>382.41615000000002</v>
       </c>
       <c r="F8">
-        <v>399.93</v>
+        <v>128.38634999999999</v>
       </c>
       <c r="G8">
-        <v>6486.3440000000001</v>
+        <v>1560.4907599999999</v>
       </c>
       <c r="H8">
-        <v>14766.566000000001</v>
+        <v>3874.9612299999999</v>
       </c>
       <c r="I8">
-        <v>1025.8710000000001</v>
+        <v>281.64830999999998</v>
       </c>
       <c r="J8">
-        <v>3380.2</v>
+        <v>458.55</v>
       </c>
       <c r="K8">
-        <v>108.709</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2757.288</v>
+        <v>626.45460000000003</v>
       </c>
       <c r="O8">
-        <v>6984.0069999999996</v>
+        <v>1402.0173299999999</v>
       </c>
       <c r="P8">
-        <v>4388.9089999999997</v>
+        <v>458.55</v>
       </c>
       <c r="Q8">
-        <v>-67.825000000000003</v>
+        <v>81.361440000000002</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>7782.5590000000002</v>
+        <v>2472.9439000000002</v>
       </c>
       <c r="U8">
-        <v>1111.989</v>
+        <v>537.57835</v>
       </c>
       <c r="V8">
-        <v>244.667</v>
+        <v>145.42636999999999</v>
       </c>
       <c r="W8">
-        <v>-116.441</v>
+        <v>-14.85224</v>
       </c>
       <c r="X8">
-        <v>-131.05000000000001</v>
+        <v>-34.595869999999998</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>621.76400000000001</v>
+        <v>-1.0747500000000001</v>
       </c>
       <c r="AA8">
-        <v>112.29900000000001</v>
+        <v>59.7483</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>110.30800000000001</v>
+        <v>39.178800000000003</v>
       </c>
       <c r="D9">
-        <v>4801.2060000000001</v>
+        <v>1228.5294200000001</v>
       </c>
       <c r="E9">
-        <v>1799.3050000000001</v>
+        <v>425.34674999999999</v>
       </c>
       <c r="F9">
-        <v>376.93299999999999</v>
+        <v>121.93040999999999</v>
       </c>
       <c r="G9">
-        <v>6622.0730000000003</v>
+        <v>1610.4999700000001</v>
       </c>
       <c r="H9">
-        <v>14997.246999999999</v>
+        <v>4020.4894100000001</v>
       </c>
       <c r="I9">
-        <v>1079.865</v>
+        <v>301.92633999999998</v>
       </c>
       <c r="J9">
-        <v>3380.2</v>
+        <v>544.54999999999995</v>
       </c>
       <c r="K9">
-        <v>137.66499999999999</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2887.027</v>
+        <v>669.08200999999997</v>
       </c>
       <c r="O9">
-        <v>7133.6729999999998</v>
+        <v>1521.1105299999999</v>
       </c>
       <c r="P9">
-        <v>4417.8649999999998</v>
+        <v>544.54999999999995</v>
       </c>
       <c r="Q9">
-        <v>581.20799999999997</v>
+        <v>-14.57091</v>
       </c>
       <c r="R9">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>7863.5739999999996</v>
+        <v>2499.3788800000002</v>
       </c>
       <c r="U9">
-        <v>1693.1969999999999</v>
+        <v>523.00744999999995</v>
       </c>
       <c r="V9">
-        <v>678.19799999999998</v>
+        <v>108.56695000000001</v>
       </c>
       <c r="W9">
-        <v>-116.77200000000001</v>
+        <v>-14.850339999999999</v>
       </c>
       <c r="X9">
-        <v>-101.622</v>
+        <v>-24.748830000000002</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>150.608</v>
+        <v>-2.04847</v>
       </c>
       <c r="AA9">
-        <v>110.30800000000001</v>
+        <v>39.178800000000003</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>136.90799999999999</v>
+        <v>42.890619999999998</v>
       </c>
       <c r="D10">
-        <v>4451.2740000000003</v>
+        <v>1294.5779299999999</v>
       </c>
       <c r="E10">
-        <v>1707.317</v>
+        <v>483.60797000000002</v>
       </c>
       <c r="F10">
-        <v>396.34800000000001</v>
+        <v>118.28309</v>
       </c>
       <c r="G10">
-        <v>5661.3639999999996</v>
+        <v>1415.3616500000001</v>
       </c>
       <c r="H10">
-        <v>14152.058999999999</v>
+        <v>4381.0012200000001</v>
       </c>
       <c r="I10">
-        <v>992.91300000000001</v>
+        <v>247.22907000000001</v>
       </c>
       <c r="J10">
-        <v>3380.2</v>
+        <v>878.55</v>
       </c>
       <c r="K10">
-        <v>83.712000000000003</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2029.568</v>
+        <v>591.53583000000003</v>
       </c>
       <c r="O10">
-        <v>6266.6850000000004</v>
+        <v>1841.3572300000001</v>
       </c>
       <c r="P10">
-        <v>3713.9119999999998</v>
+        <v>894.55</v>
       </c>
       <c r="Q10">
-        <v>-640.33500000000004</v>
+        <v>-304.00258000000002</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>22200</v>
+        <v>9800</v>
       </c>
       <c r="T10">
-        <v>7885.3739999999998</v>
+        <v>2539.64399</v>
       </c>
       <c r="U10">
-        <v>1052.8620000000001</v>
+        <v>219.00487000000001</v>
       </c>
       <c r="V10">
-        <v>75.700999999999993</v>
+        <v>84.996549999999999</v>
       </c>
       <c r="W10">
-        <v>-116.82299999999999</v>
+        <v>-14.85422</v>
       </c>
       <c r="X10">
-        <v>-775.61400000000003</v>
+        <v>334.1266</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>244.126</v>
+        <v>-0.11955</v>
       </c>
       <c r="AA10">
-        <v>136.90799999999999</v>
+        <v>42.890619999999998</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41363</v>
+        <v>37716</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>84.789000000000001</v>
+        <v>17.782</v>
       </c>
       <c r="D11">
-        <v>4550.7719999999999</v>
+        <v>1480.271</v>
       </c>
       <c r="E11">
-        <v>1791.3209999999999</v>
+        <v>483.46265</v>
       </c>
       <c r="F11">
-        <v>303.21600000000001</v>
+        <v>73.846000000000004</v>
       </c>
       <c r="G11">
-        <v>5546.741</v>
+        <v>1425.9611500000001</v>
       </c>
       <c r="H11">
-        <v>14039.01</v>
+        <v>4382.3308100000004</v>
       </c>
       <c r="I11">
-        <v>1021.076</v>
+        <v>326.76862</v>
       </c>
       <c r="J11">
-        <v>3380.2</v>
+        <v>878.55</v>
       </c>
       <c r="K11">
-        <v>42.384</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="N11">
-        <v>1986.9870000000001</v>
+        <v>633.58793000000003</v>
       </c>
       <c r="O11">
-        <v>6236.7669999999998</v>
+        <v>1883.4159099999999</v>
       </c>
       <c r="P11">
-        <v>3672.5839999999998</v>
+        <v>878.55</v>
       </c>
       <c r="Q11">
-        <v>-150.16200000000001</v>
+        <v>-37.293999999999997</v>
       </c>
       <c r="R11">
-        <v>41363</v>
+        <v>37716</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>7802.2430000000004</v>
+        <v>2498.9149000000002</v>
       </c>
       <c r="U11">
-        <v>902.7</v>
+        <v>181.71039999999999</v>
       </c>
       <c r="V11">
-        <v>128.81100000000001</v>
+        <v>127.801</v>
       </c>
       <c r="W11">
-        <v>-117.61799999999999</v>
+        <v>-15.637</v>
       </c>
       <c r="X11">
-        <v>-139.09100000000001</v>
+        <v>-80.748999999999995</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>60.25</v>
+        <v>-7.109</v>
       </c>
       <c r="AA11">
-        <v>84.789000000000001</v>
+        <v>17.782</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41454</v>
+        <v>37807</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>85.144999999999996</v>
+        <v>8.4250000000000007</v>
       </c>
       <c r="D12">
-        <v>4665.5879999999997</v>
+        <v>1520.461</v>
       </c>
       <c r="E12">
-        <v>1767.1769999999999</v>
+        <v>527.28683999999998</v>
       </c>
       <c r="F12">
-        <v>313.125</v>
+        <v>66.314999999999998</v>
       </c>
       <c r="G12">
-        <v>5183.1629999999996</v>
+        <v>1427.20018</v>
       </c>
       <c r="H12">
-        <v>13766.651</v>
+        <v>4350.4194399999997</v>
       </c>
       <c r="I12">
-        <v>979.22</v>
+        <v>290.63001000000003</v>
       </c>
       <c r="J12">
-        <v>3380.2</v>
+        <v>878.55</v>
       </c>
       <c r="K12">
-        <v>31.667999999999999</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1740.576</v>
+        <v>603.28755999999998</v>
       </c>
       <c r="O12">
-        <v>5995.4210000000003</v>
+        <v>1863.27404</v>
       </c>
       <c r="P12">
-        <v>3411.8679999999999</v>
+        <v>878.55</v>
       </c>
       <c r="Q12">
-        <v>-272.233</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="R12">
-        <v>41454</v>
+        <v>37807</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>7771.23</v>
+        <v>2487.1453999999999</v>
       </c>
       <c r="U12">
-        <v>630.46699999999998</v>
+        <v>182.27623</v>
       </c>
       <c r="V12">
-        <v>356.16300000000001</v>
+        <v>78.971000000000004</v>
       </c>
       <c r="W12">
-        <v>-117.66200000000001</v>
+        <v>-15.641</v>
       </c>
       <c r="X12">
-        <v>-399.85</v>
+        <v>-24.533999999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-19.196999999999999</v>
+        <v>-2.0920000000000001</v>
       </c>
       <c r="AA12">
-        <v>85.144999999999996</v>
+        <v>8.4250000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41545</v>
+        <v>37898</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>147.59700000000001</v>
+        <v>16.021999999999998</v>
       </c>
       <c r="D13">
-        <v>4940.9359999999997</v>
+        <v>1604.011</v>
       </c>
       <c r="E13">
-        <v>1918.165</v>
+        <v>546.54633999999999</v>
       </c>
       <c r="F13">
-        <v>408.54300000000001</v>
+        <v>71.153999999999996</v>
       </c>
       <c r="G13">
-        <v>6468.8770000000004</v>
+        <v>1545.66444</v>
       </c>
       <c r="H13">
-        <v>15091.776</v>
+        <v>4440.5526399999999</v>
       </c>
       <c r="I13">
-        <v>1137.3520000000001</v>
+        <v>339.30824000000001</v>
       </c>
       <c r="J13">
-        <v>4380.2</v>
+        <v>903.55</v>
       </c>
       <c r="K13">
-        <v>38.203000000000003</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1993.489</v>
+        <v>666.30395999999996</v>
       </c>
       <c r="O13">
-        <v>7228.5029999999997</v>
+        <v>1945.0440799999999</v>
       </c>
       <c r="P13">
-        <v>4418.4030000000002</v>
+        <v>903.55</v>
       </c>
       <c r="Q13">
-        <v>1092.442</v>
+        <v>102.664</v>
       </c>
       <c r="R13">
-        <v>41545</v>
+        <v>37898</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>7863.2730000000001</v>
+        <v>2495.5085600000002</v>
       </c>
       <c r="U13">
-        <v>1722.9090000000001</v>
+        <v>284.93981000000002</v>
       </c>
       <c r="V13">
-        <v>398.666</v>
+        <v>160.88200000000001</v>
       </c>
       <c r="W13">
-        <v>-117.875</v>
+        <v>-15.657999999999999</v>
       </c>
       <c r="X13">
-        <v>874.48400000000004</v>
+        <v>11.143000000000001</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-9.7360000000000007</v>
+        <v>-9.4390000000000001</v>
       </c>
       <c r="AA13">
-        <v>147.59700000000001</v>
+        <v>16.021999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>170.494</v>
+        <v>20.552</v>
       </c>
       <c r="D14">
-        <v>4894.75</v>
+        <v>1661.08</v>
       </c>
       <c r="E14">
-        <v>1810.9870000000001</v>
+        <v>572.47900000000004</v>
       </c>
       <c r="F14">
-        <v>385.74099999999999</v>
+        <v>57.960999999999999</v>
       </c>
       <c r="G14">
-        <v>6410.0460000000003</v>
+        <v>1620.56</v>
       </c>
       <c r="H14">
-        <v>15203.282999999999</v>
+        <v>4492.3530000000001</v>
       </c>
       <c r="I14">
-        <v>1035.4780000000001</v>
+        <v>329.863</v>
       </c>
       <c r="J14">
-        <v>4376.8999999999996</v>
+        <v>903.55</v>
       </c>
       <c r="K14">
-        <v>110.80200000000001</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1960.2159999999999</v>
+        <v>629.59500000000003</v>
       </c>
       <c r="O14">
-        <v>7293.0050000000001</v>
+        <v>1972.9970000000001</v>
       </c>
       <c r="P14">
-        <v>4491.0020000000004</v>
+        <v>903.55</v>
       </c>
       <c r="Q14">
-        <v>-239.65700000000001</v>
+        <v>65.391999999999996</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>22300</v>
+        <v>9900</v>
       </c>
       <c r="T14">
-        <v>7910.2780000000002</v>
+        <v>2519.3560000000002</v>
       </c>
       <c r="U14">
-        <v>1483.252</v>
+        <v>350.33199999999999</v>
       </c>
       <c r="V14">
-        <v>194.309</v>
+        <v>126.96599999999999</v>
       </c>
       <c r="W14">
-        <v>-117.873</v>
+        <v>-15.718</v>
       </c>
       <c r="X14">
-        <v>-139.499</v>
+        <v>-1.571</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>11.542</v>
+        <v>-3.4849999999999999</v>
       </c>
       <c r="AA14">
-        <v>170.494</v>
+        <v>20.552</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41734</v>
+        <v>38080</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>111.03100000000001</v>
+        <v>113.238</v>
       </c>
       <c r="D15">
-        <v>5108.4440000000004</v>
+        <v>2286.4160000000002</v>
       </c>
       <c r="E15">
-        <v>1900.2929999999999</v>
+        <v>762.56700000000001</v>
       </c>
       <c r="F15">
-        <v>377.202</v>
+        <v>270.04700000000003</v>
       </c>
       <c r="G15">
-        <v>6309.8729999999996</v>
+        <v>1948.3409999999999</v>
       </c>
       <c r="H15">
-        <v>15118.011</v>
+        <v>4829.0680000000002</v>
       </c>
       <c r="I15">
-        <v>1062.5719999999999</v>
+        <v>486.803</v>
       </c>
       <c r="J15">
-        <v>4376.8999999999996</v>
+        <v>903.55</v>
       </c>
       <c r="K15">
-        <v>27.071999999999999</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>-2.13</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1895.9680000000001</v>
+        <v>893.90700000000004</v>
       </c>
       <c r="O15">
-        <v>7257.4759999999997</v>
+        <v>2235.873</v>
       </c>
       <c r="P15">
-        <v>4432.0720000000001</v>
+        <v>903.55</v>
       </c>
       <c r="Q15">
-        <v>-330.71</v>
+        <v>47.582000000000001</v>
       </c>
       <c r="R15">
-        <v>41734</v>
+        <v>38080</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>7860.5349999999999</v>
+        <v>2593.1950000000002</v>
       </c>
       <c r="U15">
-        <v>1152.5419999999999</v>
+        <v>397.91399999999999</v>
       </c>
       <c r="V15">
-        <v>149.214</v>
+        <v>201.45099999999999</v>
       </c>
       <c r="W15">
-        <v>-118.68</v>
+        <v>-16.573</v>
       </c>
       <c r="X15">
-        <v>-145.905</v>
+        <v>-49.704000000000001</v>
       </c>
       <c r="Y15">
-        <v>22.7</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>-76.575999999999993</v>
+        <v>-39.631</v>
       </c>
       <c r="AA15">
-        <v>111.03100000000001</v>
+        <v>113.238</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41825</v>
+        <v>38171</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>147.041</v>
+        <v>251.44200000000001</v>
       </c>
       <c r="D16">
-        <v>5291.0749999999998</v>
+        <v>2761.8220000000001</v>
       </c>
       <c r="E16">
-        <v>2071.4389999999999</v>
+        <v>900.91499999999996</v>
       </c>
       <c r="F16">
-        <v>415.86700000000002</v>
+        <v>527.90599999999995</v>
       </c>
       <c r="G16">
-        <v>6494.79</v>
+        <v>2278.721</v>
       </c>
       <c r="H16">
-        <v>15310.888000000001</v>
+        <v>5110.866</v>
       </c>
       <c r="I16">
-        <v>1124.077</v>
+        <v>412.59500000000003</v>
       </c>
       <c r="J16">
-        <v>4368.8999999999996</v>
+        <v>903.55</v>
       </c>
       <c r="K16">
-        <v>42.414000000000001</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2017.2260000000001</v>
+        <v>936.24300000000005</v>
       </c>
       <c r="O16">
-        <v>7364.875</v>
+        <v>2258.67</v>
       </c>
       <c r="P16">
-        <v>4446.8140000000003</v>
+        <v>903.55</v>
       </c>
       <c r="Q16">
-        <v>-84.980999999999995</v>
+        <v>104.136</v>
       </c>
       <c r="R16">
-        <v>41825</v>
+        <v>38171</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>7946.0129999999999</v>
+        <v>2852.1959999999999</v>
       </c>
       <c r="U16">
-        <v>1067.5609999999999</v>
+        <v>502.05</v>
       </c>
       <c r="V16">
-        <v>294.11500000000001</v>
+        <v>170.46299999999999</v>
       </c>
       <c r="W16">
-        <v>-118.68899999999999</v>
+        <v>-16.648</v>
       </c>
       <c r="X16">
-        <v>-114.55200000000001</v>
+        <v>-7.9290000000000003</v>
       </c>
       <c r="Y16">
-        <v>22.1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>-49.386000000000003</v>
+        <v>-13.864000000000001</v>
       </c>
       <c r="AA16">
-        <v>147.041</v>
+        <v>251.44200000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41916</v>
+        <v>38262</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>245.447</v>
+        <v>415.387</v>
       </c>
       <c r="D17">
-        <v>5701.8689999999997</v>
+        <v>3239.5920000000001</v>
       </c>
       <c r="E17">
-        <v>2243.9079999999999</v>
+        <v>1048.2380000000001</v>
       </c>
       <c r="F17">
-        <v>599.58600000000001</v>
+        <v>806.07399999999996</v>
       </c>
       <c r="G17">
-        <v>6796.2439999999997</v>
+        <v>2935.011</v>
       </c>
       <c r="H17">
-        <v>15493.593999999999</v>
+        <v>5885.4160000000002</v>
       </c>
       <c r="I17">
-        <v>1113.2840000000001</v>
+        <v>565.61599999999999</v>
       </c>
       <c r="J17">
-        <v>4360.6000000000004</v>
+        <v>923.55</v>
       </c>
       <c r="K17">
-        <v>41.100999999999999</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2156.4960000000001</v>
+        <v>1280.78</v>
       </c>
       <c r="O17">
-        <v>7477.8909999999996</v>
+        <v>2604.9470000000001</v>
       </c>
       <c r="P17">
-        <v>4441.701</v>
+        <v>923.55</v>
       </c>
       <c r="Q17">
-        <v>228.38399999999999</v>
+        <v>256.10199999999998</v>
       </c>
       <c r="R17">
-        <v>41916</v>
+        <v>38262</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>8015.7030000000004</v>
+        <v>3280.4690000000001</v>
       </c>
       <c r="U17">
-        <v>1295.9449999999999</v>
+        <v>758.15200000000004</v>
       </c>
       <c r="V17">
-        <v>482.23399999999998</v>
+        <v>523.40300000000002</v>
       </c>
       <c r="W17">
-        <v>-118.861</v>
+        <v>-20.68</v>
       </c>
       <c r="X17">
-        <v>-132.56</v>
+        <v>3.5259999999999998</v>
       </c>
       <c r="Y17">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>-14.137</v>
+        <v>-15.055</v>
       </c>
       <c r="AA17">
-        <v>245.447</v>
+        <v>415.387</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>210.42699999999999</v>
+        <v>341.41800000000001</v>
       </c>
       <c r="D18">
-        <v>5003.7529999999997</v>
+        <v>3088.998</v>
       </c>
       <c r="E18">
-        <v>2068.2979999999998</v>
+        <v>962.755</v>
       </c>
       <c r="F18">
-        <v>522.77099999999996</v>
+        <v>657.12900000000002</v>
       </c>
       <c r="G18">
-        <v>6441.8879999999999</v>
+        <v>3174.9479999999999</v>
       </c>
       <c r="H18">
-        <v>15615.927</v>
+        <v>6133.2070000000003</v>
       </c>
       <c r="I18">
-        <v>885.97199999999998</v>
+        <v>379.94900000000001</v>
       </c>
       <c r="J18">
-        <v>4360.6000000000004</v>
+        <v>923.55</v>
       </c>
       <c r="K18">
-        <v>315.37599999999998</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2097.7759999999998</v>
+        <v>1065.79</v>
       </c>
       <c r="O18">
-        <v>7540.8090000000002</v>
+        <v>2503.9090000000001</v>
       </c>
       <c r="P18">
-        <v>4715.5110000000004</v>
+        <v>923.55</v>
       </c>
       <c r="Q18">
-        <v>-271.80099999999999</v>
+        <v>20.896999999999998</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>23600</v>
+        <v>10600</v>
       </c>
       <c r="T18">
-        <v>8075.1180000000004</v>
+        <v>3629.2979999999998</v>
       </c>
       <c r="U18">
-        <v>1024.144</v>
+        <v>779.04899999999998</v>
       </c>
       <c r="V18">
-        <v>417.33499999999998</v>
+        <v>129.43899999999999</v>
       </c>
       <c r="W18">
-        <v>-118.893</v>
+        <v>-15.775</v>
       </c>
       <c r="X18">
-        <v>33.97</v>
+        <v>-6.9969999999999999</v>
       </c>
       <c r="Y18">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>91.787000000000006</v>
+        <v>-13.907999999999999</v>
       </c>
       <c r="AA18">
-        <v>210.42699999999999</v>
+        <v>341.41800000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42098</v>
+        <v>38444</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>67.8</v>
+        <v>354.666</v>
       </c>
       <c r="D19">
-        <v>4399.4399999999996</v>
+        <v>3322.6210000000001</v>
       </c>
       <c r="E19">
-        <v>1711.1010000000001</v>
+        <v>1021.43</v>
       </c>
       <c r="F19">
-        <v>288.28199999999998</v>
+        <v>701.99300000000005</v>
       </c>
       <c r="G19">
-        <v>5862.9889999999996</v>
+        <v>3611.3409999999999</v>
       </c>
       <c r="H19">
-        <v>14855.438</v>
+        <v>6613.134</v>
       </c>
       <c r="I19">
-        <v>746.18399999999997</v>
+        <v>524.65599999999995</v>
       </c>
       <c r="J19">
-        <v>4360.6000000000004</v>
+        <v>923.55</v>
       </c>
       <c r="K19">
-        <v>26.890999999999998</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-180.239</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1524.806</v>
+        <v>1203.615</v>
       </c>
       <c r="O19">
-        <v>6949.7669999999998</v>
+        <v>2625.2260000000001</v>
       </c>
       <c r="P19">
-        <v>4426.3909999999996</v>
+        <v>923.55</v>
       </c>
       <c r="Q19">
-        <v>129.79300000000001</v>
+        <v>423.66199999999998</v>
       </c>
       <c r="R19">
-        <v>42098</v>
+        <v>38444</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>7905.6710000000003</v>
+        <v>3987.9079999999999</v>
       </c>
       <c r="U19">
-        <v>1153.9369999999999</v>
+        <v>1202.711</v>
       </c>
       <c r="V19">
-        <v>563.69399999999996</v>
+        <v>587.93799999999999</v>
       </c>
       <c r="W19">
-        <v>-119.712</v>
+        <v>-64.08</v>
       </c>
       <c r="X19">
-        <v>-324.84500000000003</v>
+        <v>-40.999000000000002</v>
       </c>
       <c r="Y19">
-        <v>20.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>-32.703000000000003</v>
+        <v>-8.1760000000000002</v>
       </c>
       <c r="AA19">
-        <v>67.8</v>
+        <v>354.666</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42189</v>
+        <v>38535</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>124.755</v>
+        <v>322.70699999999999</v>
       </c>
       <c r="D20">
-        <v>4357.6090000000004</v>
+        <v>3145.0030000000002</v>
       </c>
       <c r="E20">
-        <v>1791.5229999999999</v>
+        <v>933.66700000000003</v>
       </c>
       <c r="F20">
-        <v>386.30599999999998</v>
+        <v>620.11099999999999</v>
       </c>
       <c r="G20">
-        <v>6154.7370000000001</v>
+        <v>3374.982</v>
       </c>
       <c r="H20">
-        <v>15068.177</v>
+        <v>6462.5050000000001</v>
       </c>
       <c r="I20">
-        <v>820.55700000000002</v>
+        <v>447.21100000000001</v>
       </c>
       <c r="J20">
-        <v>4360.6000000000004</v>
+        <v>922.3</v>
       </c>
       <c r="K20">
-        <v>42.664000000000001</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1690.077</v>
+        <v>1015.3339999999999</v>
       </c>
       <c r="O20">
-        <v>7093.0919999999996</v>
+        <v>2422.0949999999998</v>
       </c>
       <c r="P20">
-        <v>4433.6639999999998</v>
+        <v>923.55</v>
       </c>
       <c r="Q20">
-        <v>422.55900000000003</v>
+        <v>-141.95599999999999</v>
       </c>
       <c r="R20">
-        <v>42189</v>
+        <v>38535</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>7975.085</v>
+        <v>4040.41</v>
       </c>
       <c r="U20">
-        <v>1576.4960000000001</v>
+        <v>1060.7550000000001</v>
       </c>
       <c r="V20">
-        <v>631.01</v>
+        <v>361.45400000000001</v>
       </c>
       <c r="W20">
-        <v>-119.764</v>
+        <v>-62.521999999999998</v>
       </c>
       <c r="X20">
-        <v>-125.902</v>
+        <v>-294.81299999999999</v>
       </c>
       <c r="Y20">
-        <v>19.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>-2.9740000000000002</v>
+        <v>-24.347000000000001</v>
       </c>
       <c r="AA20">
-        <v>124.755</v>
+        <v>322.70699999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42280</v>
+        <v>38626</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>227.126</v>
+        <v>291.87700000000001</v>
       </c>
       <c r="D21">
-        <v>4225.5140000000001</v>
+        <v>3025.9110000000001</v>
       </c>
       <c r="E21">
-        <v>1716.356</v>
+        <v>1017.9</v>
       </c>
       <c r="F21">
-        <v>523.83600000000001</v>
+        <v>580.23500000000001</v>
       </c>
       <c r="G21">
-        <v>6465.7309999999998</v>
+        <v>3805.01</v>
       </c>
       <c r="H21">
-        <v>15269.468000000001</v>
+        <v>6958.875</v>
       </c>
       <c r="I21">
-        <v>907.33199999999999</v>
+        <v>573.47699999999998</v>
       </c>
       <c r="J21">
-        <v>4360.6000000000004</v>
+        <v>922.3</v>
       </c>
       <c r="K21">
-        <v>54.600999999999999</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1847.4110000000001</v>
+        <v>1259.595</v>
       </c>
       <c r="O21">
-        <v>7222.1270000000004</v>
+        <v>2699.866</v>
       </c>
       <c r="P21">
-        <v>4436.8010000000004</v>
+        <v>923.55</v>
       </c>
       <c r="Q21">
-        <v>318.92899999999997</v>
+        <v>433.89299999999997</v>
       </c>
       <c r="R21">
-        <v>42280</v>
+        <v>38626</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>8047.3410000000003</v>
+        <v>4259.009</v>
       </c>
       <c r="U21">
-        <v>1895.425</v>
+        <v>1607.2380000000001</v>
       </c>
       <c r="V21">
-        <v>562.59500000000003</v>
+        <v>777.93499999999995</v>
       </c>
       <c r="W21">
-        <v>-119.985</v>
+        <v>-62.273000000000003</v>
       </c>
       <c r="X21">
-        <v>-133.13499999999999</v>
+        <v>-149.09200000000001</v>
       </c>
       <c r="Y21">
-        <v>19.3</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>-6.069</v>
+        <v>-117.517</v>
       </c>
       <c r="AA21">
-        <v>227.126</v>
+        <v>291.87700000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-338.95699999999999</v>
+        <v>341.03399999999999</v>
       </c>
       <c r="D22">
-        <v>3456.7130000000002</v>
+        <v>3207.4639999999999</v>
       </c>
       <c r="E22">
-        <v>1383.8230000000001</v>
+        <v>1000.629</v>
       </c>
       <c r="F22">
-        <v>-84.534000000000006</v>
+        <v>686.96400000000006</v>
       </c>
       <c r="G22">
-        <v>5854.4049999999997</v>
+        <v>4071.5529999999999</v>
       </c>
       <c r="H22">
-        <v>14326.968999999999</v>
+        <v>7138.7870000000003</v>
       </c>
       <c r="I22">
-        <v>503.72699999999998</v>
+        <v>425.32400000000001</v>
       </c>
       <c r="J22">
-        <v>4337.1450000000004</v>
+        <v>922.3</v>
       </c>
       <c r="K22">
-        <v>114.11499999999999</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1385.173</v>
+        <v>1255.6990000000001</v>
       </c>
       <c r="O22">
-        <v>6477.0919999999996</v>
+        <v>2664.9090000000001</v>
       </c>
       <c r="P22">
-        <v>4451.26</v>
+        <v>923.55</v>
       </c>
       <c r="Q22">
-        <v>44.043999999999997</v>
+        <v>-514.49800000000005</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>23700</v>
+        <v>11300</v>
       </c>
       <c r="T22">
-        <v>7849.8770000000004</v>
+        <v>4473.8779999999997</v>
       </c>
       <c r="U22">
-        <v>1939.4690000000001</v>
+        <v>980.15</v>
       </c>
       <c r="V22">
-        <v>399.74400000000003</v>
+        <v>409.28800000000001</v>
       </c>
       <c r="W22">
-        <v>-119.971</v>
+        <v>-20.876999999999999</v>
       </c>
       <c r="X22">
-        <v>-205.869</v>
+        <v>-65.769000000000005</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-39.137999999999998</v>
+        <v>-749.22299999999996</v>
       </c>
       <c r="AA22">
-        <v>-338.95699999999999</v>
+        <v>341.03399999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42462</v>
+        <v>38808</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>87.564999999999998</v>
+        <v>380.03100000000001</v>
       </c>
       <c r="D23">
-        <v>3715.576</v>
+        <v>3545.0970000000002</v>
       </c>
       <c r="E23">
-        <v>1493.8920000000001</v>
+        <v>1068.752</v>
       </c>
       <c r="F23">
-        <v>314.98500000000001</v>
+        <v>766.92600000000004</v>
       </c>
       <c r="G23">
-        <v>6006.1490000000003</v>
+        <v>4462.1149999999998</v>
       </c>
       <c r="H23">
-        <v>14395.103999999999</v>
+        <v>7504.1459999999997</v>
       </c>
       <c r="I23">
-        <v>758.70299999999997</v>
+        <v>592.37300000000005</v>
       </c>
       <c r="J23">
-        <v>4337.875</v>
+        <v>922.3</v>
       </c>
       <c r="K23">
-        <v>36.655000000000001</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>-14.670999999999999</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1550.13</v>
+        <v>1372.329</v>
       </c>
       <c r="O23">
-        <v>6617.0320000000002</v>
+        <v>2754.9969999999998</v>
       </c>
       <c r="P23">
-        <v>4374.53</v>
+        <v>923.55</v>
       </c>
       <c r="Q23">
-        <v>339.01900000000001</v>
+        <v>147.828</v>
       </c>
       <c r="R23">
-        <v>42462</v>
+        <v>38808</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>7778.0720000000001</v>
+        <v>4749.1490000000003</v>
       </c>
       <c r="U23">
-        <v>2278.4879999999998</v>
+        <v>1127.9780000000001</v>
       </c>
       <c r="V23">
-        <v>550.85900000000004</v>
+        <v>567.39099999999996</v>
       </c>
       <c r="W23">
-        <v>-120.15300000000001</v>
+        <v>-100.87</v>
       </c>
       <c r="X23">
-        <v>-190.05600000000001</v>
+        <v>-116.764</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>43.902000000000001</v>
+        <v>-234.36699999999999</v>
       </c>
       <c r="AA23">
-        <v>87.564999999999998</v>
+        <v>380.03100000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42553</v>
+        <v>38899</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>243.62</v>
+        <v>450.01100000000002</v>
       </c>
       <c r="D24">
-        <v>4245.7719999999999</v>
+        <v>3806.35</v>
       </c>
       <c r="E24">
-        <v>1789.942</v>
+        <v>1224.3900000000001</v>
       </c>
       <c r="F24">
-        <v>585.26</v>
+        <v>876.55499999999995</v>
       </c>
       <c r="G24">
-        <v>6538.4979999999996</v>
+        <v>4697.4549999999999</v>
       </c>
       <c r="H24">
-        <v>14924.583000000001</v>
+        <v>7745.7529999999997</v>
       </c>
       <c r="I24">
-        <v>1023.213</v>
+        <v>712.99900000000002</v>
       </c>
       <c r="J24">
-        <v>4337.5609999999997</v>
+        <v>922.3</v>
       </c>
       <c r="K24">
-        <v>19.951000000000001</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1936.1079999999999</v>
+        <v>1514.7090000000001</v>
       </c>
       <c r="O24">
-        <v>7003.8739999999998</v>
+        <v>2893.5889999999999</v>
       </c>
       <c r="P24">
-        <v>4357.5119999999997</v>
+        <v>923.55</v>
       </c>
       <c r="Q24">
-        <v>-497.33800000000002</v>
+        <v>-244.65700000000001</v>
       </c>
       <c r="R24">
-        <v>42553</v>
+        <v>38899</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>7920.7089999999998</v>
+        <v>4852.1639999999998</v>
       </c>
       <c r="U24">
-        <v>1781.15</v>
+        <v>883.32100000000003</v>
       </c>
       <c r="V24">
-        <v>315.51299999999998</v>
+        <v>373.11799999999999</v>
       </c>
       <c r="W24">
-        <v>-120.149</v>
+        <v>-109.149</v>
       </c>
       <c r="X24">
-        <v>-176.71700000000001</v>
+        <v>-300.84899999999999</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-506.41</v>
+        <v>-205.83699999999999</v>
       </c>
       <c r="AA24">
-        <v>243.62</v>
+        <v>450.01100000000002</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42644</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>305.447</v>
+        <v>521.63599999999997</v>
       </c>
       <c r="D25">
-        <v>4290.2359999999999</v>
+        <v>3931.2330000000002</v>
       </c>
       <c r="E25">
-        <v>1850.4549999999999</v>
+        <v>1230.8989999999999</v>
       </c>
       <c r="F25">
-        <v>682.23599999999999</v>
+        <v>1010.451</v>
       </c>
       <c r="G25">
-        <v>6700.4219999999996</v>
+        <v>4832.0200000000004</v>
       </c>
       <c r="H25">
-        <v>15113.679</v>
+        <v>7895.6670000000004</v>
       </c>
       <c r="I25">
-        <v>926.11800000000005</v>
+        <v>679.12800000000004</v>
       </c>
       <c r="J25">
-        <v>4338.3469999999998</v>
+        <v>922.3</v>
       </c>
       <c r="K25">
-        <v>29.795000000000002</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1898.4870000000001</v>
+        <v>1658.68</v>
       </c>
       <c r="O25">
-        <v>7023.1629999999996</v>
+        <v>3039.5259999999998</v>
       </c>
       <c r="P25">
-        <v>4368.1419999999998</v>
+        <v>922.3</v>
       </c>
       <c r="Q25">
-        <v>-76.442999999999998</v>
+        <v>-50.723999999999997</v>
       </c>
       <c r="R25">
-        <v>42644</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>8090.5159999999996</v>
+        <v>4856.1409999999996</v>
       </c>
       <c r="U25">
-        <v>1704.7070000000001</v>
+        <v>832.59699999999998</v>
       </c>
       <c r="V25">
-        <v>315.71800000000002</v>
+        <v>749.91300000000001</v>
       </c>
       <c r="W25">
-        <v>-120.373</v>
+        <v>-185.774</v>
       </c>
       <c r="X25">
-        <v>-115.791</v>
+        <v>-572.46699999999998</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-135.65899999999999</v>
+        <v>-125.61499999999999</v>
       </c>
       <c r="AA25">
-        <v>305.447</v>
+        <v>521.63599999999997</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>159.63900000000001</v>
+        <v>405.10399999999998</v>
       </c>
       <c r="D26">
-        <v>3956.538</v>
+        <v>3468.59</v>
       </c>
       <c r="E26">
-        <v>1631.6759999999999</v>
+        <v>1067.3219999999999</v>
       </c>
       <c r="F26">
-        <v>443.42599999999999</v>
+        <v>812.73199999999997</v>
       </c>
       <c r="G26">
-        <v>6506.393</v>
+        <v>4683.0649999999996</v>
       </c>
       <c r="H26">
-        <v>15223.518</v>
+        <v>7893.018</v>
       </c>
       <c r="I26">
-        <v>776.80899999999997</v>
+        <v>441.94</v>
       </c>
       <c r="J26">
-        <v>3739.1410000000001</v>
+        <v>922.3</v>
       </c>
       <c r="K26">
-        <v>79.259</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,81 +2884,81 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2389.9659999999999</v>
+        <v>1421.9169999999999</v>
       </c>
       <c r="O26">
-        <v>6968.81</v>
+        <v>2792.3009999999999</v>
       </c>
       <c r="P26">
-        <v>4418.3999999999996</v>
+        <v>922.3</v>
       </c>
       <c r="Q26">
-        <v>341.25400000000002</v>
+        <v>-46.945999999999998</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>23900</v>
+        <v>11900</v>
       </c>
       <c r="T26">
-        <v>8254.7080000000005</v>
+        <v>5100.7169999999996</v>
       </c>
       <c r="U26">
-        <v>2045.961</v>
+        <v>785.65099999999995</v>
       </c>
       <c r="V26">
-        <v>567.83000000000004</v>
+        <v>560.81100000000004</v>
       </c>
       <c r="W26">
-        <v>-120.408</v>
+        <v>-182.023</v>
       </c>
       <c r="X26">
-        <v>-143.78899999999999</v>
+        <v>-307.90800000000002</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>620</v>
+        <v>-21.777999999999999</v>
       </c>
       <c r="AA26">
-        <v>159.63900000000001</v>
+        <v>405.10399999999998</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>356.899</v>
+        <v>381.029</v>
       </c>
       <c r="D27">
-        <v>4815.1790000000001</v>
+        <v>3768.8850000000002</v>
       </c>
       <c r="E27">
-        <v>1980.556</v>
+        <v>1432.123</v>
       </c>
       <c r="F27">
-        <v>760.25</v>
+        <v>777.28700000000003</v>
       </c>
       <c r="G27">
-        <v>6878.1930000000002</v>
+        <v>4428.433</v>
       </c>
       <c r="H27">
-        <v>15875.46</v>
+        <v>8485.7340000000004</v>
       </c>
       <c r="I27">
-        <v>1257.9000000000001</v>
+        <v>796.32</v>
       </c>
       <c r="J27">
-        <v>3739.9079999999999</v>
+        <v>922.3</v>
       </c>
       <c r="K27">
-        <v>48.152999999999999</v>
+        <v>92.774000000000001</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2967,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>2837.7959999999998</v>
+        <v>1679.3779999999999</v>
       </c>
       <c r="O27">
-        <v>7407.3890000000001</v>
+        <v>3147.2109999999998</v>
       </c>
       <c r="P27">
-        <v>4388.0609999999997</v>
+        <v>1015.074</v>
       </c>
       <c r="Q27">
-        <v>-388.202</v>
+        <v>95.954999999999998</v>
       </c>
       <c r="R27">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>8468.0709999999999</v>
+        <v>5338.5230000000001</v>
       </c>
       <c r="U27">
-        <v>1657.759</v>
+        <v>881.60599999999999</v>
       </c>
       <c r="V27">
-        <v>244.142</v>
+        <v>565.51</v>
       </c>
       <c r="W27">
-        <v>-121.303</v>
+        <v>-181.155</v>
       </c>
       <c r="X27">
-        <v>-147.102</v>
+        <v>-268.05799999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>86</v>
+        <v>943.90700000000004</v>
       </c>
       <c r="AA27">
-        <v>356.899</v>
+        <v>381.029</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>323.048</v>
+        <v>344.85</v>
       </c>
       <c r="D28">
-        <v>5174.7690000000002</v>
+        <v>4168.1099999999997</v>
       </c>
       <c r="E28">
-        <v>2081.15</v>
+        <v>1528.597</v>
       </c>
       <c r="F28">
-        <v>709.625</v>
+        <v>764.20500000000004</v>
       </c>
       <c r="G28">
-        <v>7182.692</v>
+        <v>4395.8459999999995</v>
       </c>
       <c r="H28">
-        <v>16112.725</v>
+        <v>8468.3070000000007</v>
       </c>
       <c r="I28">
-        <v>1214.3130000000001</v>
+        <v>799.69200000000001</v>
       </c>
       <c r="J28">
-        <v>3240.694</v>
+        <v>922.3</v>
       </c>
       <c r="K28">
-        <v>39.197000000000003</v>
+        <v>23.54</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>3325.306</v>
+        <v>1572.875</v>
       </c>
       <c r="O28">
-        <v>7400.8119999999999</v>
+        <v>3050.3870000000002</v>
       </c>
       <c r="P28">
-        <v>4379.8909999999996</v>
+        <v>945.84</v>
       </c>
       <c r="Q28">
-        <v>-146.40600000000001</v>
+        <v>-257.14999999999998</v>
       </c>
       <c r="R28">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>8711.9130000000005</v>
+        <v>5417.92</v>
       </c>
       <c r="U28">
-        <v>1511.3530000000001</v>
+        <v>624.45600000000002</v>
       </c>
       <c r="V28">
-        <v>106.71899999999999</v>
+        <v>172.054</v>
       </c>
       <c r="W28">
-        <v>-121.401</v>
+        <v>-184.68100000000001</v>
       </c>
       <c r="X28">
-        <v>-164.53800000000001</v>
+        <v>-429.226</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-5</v>
+        <v>130.321</v>
       </c>
       <c r="AA28">
-        <v>323.048</v>
+        <v>344.85</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>254.85</v>
+        <v>381.22199999999998</v>
       </c>
       <c r="D29">
-        <v>5170.1170000000002</v>
+        <v>4259.2209999999995</v>
       </c>
       <c r="E29">
-        <v>2113.89</v>
+        <v>1629.682</v>
       </c>
       <c r="F29">
-        <v>578.96400000000006</v>
+        <v>809.96100000000001</v>
       </c>
       <c r="G29">
-        <v>7500.6469999999999</v>
+        <v>3763.4229999999998</v>
       </c>
       <c r="H29">
-        <v>16503.833999999999</v>
+        <v>8300.2430000000004</v>
       </c>
       <c r="I29">
-        <v>1312.817</v>
+        <v>784.32899999999995</v>
       </c>
       <c r="J29">
-        <v>3241.4879999999998</v>
+        <v>922.3</v>
       </c>
       <c r="K29">
-        <v>50.37</v>
+        <v>22.265000000000001</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>3555.4659999999999</v>
+        <v>1667.9079999999999</v>
       </c>
       <c r="O29">
-        <v>7658.02</v>
+        <v>3181.3809999999999</v>
       </c>
       <c r="P29">
-        <v>4391.8580000000002</v>
+        <v>944.56500000000005</v>
       </c>
       <c r="Q29">
-        <v>64.590999999999994</v>
+        <v>-352.2</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>8845.8140000000003</v>
+        <v>5118.8620000000001</v>
       </c>
       <c r="U29">
-        <v>1575.944</v>
+        <v>272.25599999999997</v>
       </c>
       <c r="V29">
-        <v>415.70699999999999</v>
+        <v>653.11900000000003</v>
       </c>
       <c r="W29">
-        <v>-121.598</v>
+        <v>-183.77</v>
       </c>
       <c r="X29">
-        <v>-205.898</v>
+        <v>-884.40200000000004</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>337.99200000000002</v>
       </c>
       <c r="AA29">
-        <v>254.85</v>
+        <v>381.22199999999998</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>383.89100000000002</v>
+        <v>364.846</v>
       </c>
       <c r="D30">
-        <v>5092.3280000000004</v>
+        <v>4396.76</v>
       </c>
       <c r="E30">
-        <v>2028.5450000000001</v>
+        <v>1611.8440000000001</v>
       </c>
       <c r="F30">
-        <v>530.36800000000005</v>
+        <v>778.596</v>
       </c>
       <c r="G30">
-        <v>6824.42</v>
+        <v>5073.2489999999998</v>
       </c>
       <c r="H30">
-        <v>15841.258</v>
+        <v>9826.1219999999994</v>
       </c>
       <c r="I30">
-        <v>1042.146</v>
+        <v>691.66800000000001</v>
       </c>
       <c r="J30">
-        <v>3242.2420000000002</v>
+        <v>2250.3000000000002</v>
       </c>
       <c r="K30">
-        <v>192.03299999999999</v>
+        <v>22.867999999999999</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2824.7640000000001</v>
+        <v>1582.0360000000001</v>
       </c>
       <c r="O30">
-        <v>6756.47</v>
+        <v>4425.759</v>
       </c>
       <c r="P30">
-        <v>3934.2750000000001</v>
+        <v>2273.1680000000001</v>
       </c>
       <c r="Q30">
-        <v>-626.84</v>
+        <v>1121.6869999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>25100</v>
+        <v>18000</v>
       </c>
       <c r="T30">
-        <v>9084.7880000000005</v>
+        <v>5400.3630000000003</v>
       </c>
       <c r="U30">
-        <v>949.10400000000004</v>
+        <v>1393.943</v>
       </c>
       <c r="V30">
-        <v>288.77</v>
+        <v>544.62300000000005</v>
       </c>
       <c r="W30">
-        <v>-121.01900000000001</v>
+        <v>-176.53299999999999</v>
       </c>
       <c r="X30">
-        <v>-724.76800000000003</v>
+        <v>1110.809</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-40</v>
+        <v>-213.97200000000001</v>
       </c>
       <c r="AA30">
-        <v>383.89100000000002</v>
+        <v>364.846</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>354.17899999999997</v>
+        <v>409.75400000000002</v>
       </c>
       <c r="D31">
-        <v>5568.4189999999999</v>
+        <v>4974.2690000000002</v>
       </c>
       <c r="E31">
-        <v>2371.7579999999998</v>
+        <v>1965.002</v>
       </c>
       <c r="F31">
-        <v>726.40599999999995</v>
+        <v>902.67700000000002</v>
       </c>
       <c r="G31">
-        <v>7079.2160000000003</v>
+        <v>4874.6419999999998</v>
       </c>
       <c r="H31">
-        <v>16121.245999999999</v>
+        <v>11340.521000000001</v>
       </c>
       <c r="I31">
-        <v>1329.902</v>
+        <v>1345.3219999999999</v>
       </c>
       <c r="J31">
-        <v>3242.8649999999998</v>
+        <v>2491.6</v>
       </c>
       <c r="K31">
-        <v>74.036000000000001</v>
+        <v>12.367000000000001</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-10.500999999999999</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>2844.5810000000001</v>
+        <v>2369.645</v>
       </c>
       <c r="O31">
-        <v>6798.3270000000002</v>
+        <v>5627.6459999999997</v>
       </c>
       <c r="P31">
-        <v>3816.9009999999998</v>
+        <v>2678.9670000000001</v>
       </c>
       <c r="Q31">
-        <v>-188.85</v>
+        <v>-659.94799999999998</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>9322.9189999999999</v>
+        <v>5712.875</v>
       </c>
       <c r="U31">
-        <v>760.25400000000002</v>
+        <v>733.995</v>
       </c>
       <c r="V31">
-        <v>127.92100000000001</v>
+        <v>667.47900000000004</v>
       </c>
       <c r="W31">
-        <v>-121.78700000000001</v>
+        <v>-176.55600000000001</v>
       </c>
       <c r="X31">
-        <v>-145.53200000000001</v>
+        <v>134.40799999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-5.9009999999999998</v>
+        <v>165.33199999999999</v>
       </c>
       <c r="AA31">
-        <v>354.17899999999997</v>
+        <v>409.75400000000002</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>683.15300000000002</v>
+        <v>580.75400000000002</v>
       </c>
       <c r="D32">
-        <v>6460.7740000000003</v>
+        <v>7090.5990000000002</v>
       </c>
       <c r="E32">
-        <v>2637.7440000000001</v>
+        <v>2611.59</v>
       </c>
       <c r="F32">
-        <v>1166.5899999999999</v>
+        <v>1210.944</v>
       </c>
       <c r="G32">
-        <v>8401.2350000000006</v>
+        <v>8183.7569999999996</v>
       </c>
       <c r="H32">
-        <v>17451.691999999999</v>
+        <v>14992.456</v>
       </c>
       <c r="I32">
-        <v>1558.02</v>
+        <v>1826.777</v>
       </c>
       <c r="J32">
-        <v>4232.2439999999997</v>
+        <v>3091.6</v>
       </c>
       <c r="K32">
-        <v>59.167999999999999</v>
+        <v>1.4390000000000001</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2750.3290000000002</v>
+        <v>2968.71</v>
       </c>
       <c r="O32">
-        <v>7716.268</v>
+        <v>6763.067</v>
       </c>
       <c r="P32">
-        <v>4291.4120000000003</v>
+        <v>3268.0390000000002</v>
       </c>
       <c r="Q32">
-        <v>726.19899999999996</v>
+        <v>2057.8850000000002</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>9735.4240000000009</v>
+        <v>8229.3889999999992</v>
       </c>
       <c r="U32">
-        <v>1486.453</v>
+        <v>2791.88</v>
       </c>
       <c r="V32">
-        <v>742.67100000000005</v>
+        <v>160.76</v>
       </c>
       <c r="W32">
-        <v>-121.86199999999999</v>
+        <v>-150.82400000000001</v>
       </c>
       <c r="X32">
-        <v>174.75</v>
+        <v>2350.1080000000002</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-17.526</v>
+        <v>-10.785</v>
       </c>
       <c r="AA32">
-        <v>683.15300000000002</v>
+        <v>580.75400000000002</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>676.65599999999995</v>
+        <v>734.59</v>
       </c>
       <c r="D33">
-        <v>6742.2020000000002</v>
+        <v>7447.52</v>
       </c>
       <c r="E33">
-        <v>2636.038</v>
+        <v>2553.1280000000002</v>
       </c>
       <c r="F33">
-        <v>1290.1500000000001</v>
+        <v>1457.1130000000001</v>
       </c>
       <c r="G33">
-        <v>8844.2510000000002</v>
+        <v>7632.98</v>
       </c>
       <c r="H33">
-        <v>17962.893</v>
+        <v>15336.547</v>
       </c>
       <c r="I33">
-        <v>1447.528</v>
+        <v>1522.7929999999999</v>
       </c>
       <c r="J33">
-        <v>4232.76</v>
+        <v>3086.2</v>
       </c>
       <c r="K33">
-        <v>52.829000000000001</v>
+        <v>204.07900000000001</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2807.6950000000002</v>
+        <v>3121.9740000000002</v>
       </c>
       <c r="O33">
-        <v>7788.4719999999998</v>
+        <v>6867.9</v>
       </c>
       <c r="P33">
-        <v>4285.5889999999999</v>
+        <v>3470.6790000000001</v>
       </c>
       <c r="Q33">
-        <v>445.702</v>
+        <v>-1137.5440000000001</v>
       </c>
       <c r="R33">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>10174.421</v>
+        <v>8468.6470000000008</v>
       </c>
       <c r="U33">
-        <v>1932.155</v>
+        <v>1654.336</v>
       </c>
       <c r="V33">
-        <v>1030.867</v>
+        <v>494.01100000000002</v>
       </c>
       <c r="W33">
-        <v>-121.333</v>
+        <v>-165.62200000000001</v>
       </c>
       <c r="X33">
-        <v>-310.27499999999998</v>
+        <v>-391.95299999999997</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-38.113</v>
+        <v>-701.89800000000002</v>
       </c>
       <c r="AA33">
-        <v>676.65599999999995</v>
+        <v>734.59</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>646.779</v>
+        <v>105.892</v>
       </c>
       <c r="D34">
-        <v>6295.884</v>
+        <v>4150.9359999999997</v>
       </c>
       <c r="E34">
-        <v>2505.5680000000002</v>
+        <v>1228.807</v>
       </c>
       <c r="F34">
-        <v>1112.2619999999999</v>
+        <v>480.30700000000002</v>
       </c>
       <c r="G34">
-        <v>8636.2649999999994</v>
+        <v>6397.4859999999999</v>
       </c>
       <c r="H34">
-        <v>17920.588</v>
+        <v>13874.442999999999</v>
       </c>
       <c r="I34">
-        <v>1338.3910000000001</v>
+        <v>472.06099999999998</v>
       </c>
       <c r="J34">
-        <v>4233.2759999999998</v>
+        <v>3086.2</v>
       </c>
       <c r="K34">
-        <v>147.66999999999999</v>
+        <v>70.721999999999994</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2806.3</v>
+        <v>1854.192</v>
       </c>
       <c r="O34">
-        <v>7718.62</v>
+        <v>5617.7619999999997</v>
       </c>
       <c r="P34">
-        <v>4380.9459999999999</v>
+        <v>3337.3220000000001</v>
       </c>
       <c r="Q34">
-        <v>-533.26900000000001</v>
+        <v>700.79399999999998</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>26300</v>
+        <v>21700</v>
       </c>
       <c r="T34">
-        <v>10201.968000000001</v>
+        <v>8256.6810000000005</v>
       </c>
       <c r="U34">
-        <v>1398.886</v>
+        <v>2355.13</v>
       </c>
       <c r="V34">
-        <v>492.49299999999999</v>
+        <v>1176.4780000000001</v>
       </c>
       <c r="W34">
-        <v>-120.39400000000001</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-627.12</v>
+        <v>-309.41800000000001</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-9.8719999999999999</v>
+        <v>36.923999999999999</v>
       </c>
       <c r="AA34">
-        <v>646.779</v>
+        <v>105.892</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43554</v>
+        <v>39907</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>501.80599999999998</v>
+        <v>-189.64500000000001</v>
       </c>
       <c r="D35">
-        <v>6096.6239999999998</v>
+        <v>2654.319</v>
       </c>
       <c r="E35">
-        <v>2483.1379999999999</v>
+        <v>933.76300000000003</v>
       </c>
       <c r="F35">
-        <v>895.89200000000005</v>
+        <v>-124.005</v>
       </c>
       <c r="G35">
-        <v>8650.3430000000008</v>
+        <v>5189.8440000000001</v>
       </c>
       <c r="H35">
-        <v>18086.698</v>
+        <v>12586.474</v>
       </c>
       <c r="I35">
-        <v>1429.7760000000001</v>
+        <v>406.21800000000002</v>
       </c>
       <c r="J35">
-        <v>4233.7920000000004</v>
+        <v>3086.2</v>
       </c>
       <c r="K35">
-        <v>71.438000000000002</v>
+        <v>6.2990000000000004</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-175</v>
       </c>
       <c r="N35">
-        <v>2568.0149999999999</v>
+        <v>940.173</v>
       </c>
       <c r="O35">
-        <v>7584.0320000000002</v>
+        <v>4721.9859999999999</v>
       </c>
       <c r="P35">
-        <v>4480.5590000000002</v>
+        <v>3097.8989999999999</v>
       </c>
       <c r="Q35">
-        <v>151.92099999999999</v>
+        <v>-455.05099999999999</v>
       </c>
       <c r="R35">
-        <v>43554</v>
+        <v>39907</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>10502.665999999999</v>
+        <v>7864.4880000000003</v>
       </c>
       <c r="U35">
-        <v>1550.807</v>
+        <v>1900.079</v>
       </c>
       <c r="V35">
-        <v>650.70799999999997</v>
+        <v>14.141999999999999</v>
       </c>
       <c r="W35">
-        <v>-123.4</v>
+        <v>-110.514</v>
       </c>
       <c r="X35">
-        <v>-233.238</v>
+        <v>-336.84500000000003</v>
       </c>
       <c r="Y35">
-        <v>149.26900000000001</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>17.562000000000001</v>
+        <v>-8.468</v>
       </c>
       <c r="AA35">
-        <v>501.80599999999998</v>
+        <v>-189.64500000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43645</v>
+        <v>39998</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>386.483</v>
+        <v>-133.33699999999999</v>
       </c>
       <c r="D36">
-        <v>5895.9859999999999</v>
+        <v>2478.0279999999998</v>
       </c>
       <c r="E36">
-        <v>2399.239</v>
+        <v>960.226</v>
       </c>
       <c r="F36">
-        <v>775.49400000000003</v>
+        <v>-61.875999999999998</v>
       </c>
       <c r="G36">
-        <v>8467.1990000000005</v>
+        <v>4927.8280000000004</v>
       </c>
       <c r="H36">
-        <v>18126.48</v>
+        <v>12411.047</v>
       </c>
       <c r="I36">
-        <v>1219.7919999999999</v>
+        <v>413.34699999999998</v>
       </c>
       <c r="J36">
-        <v>4234.308</v>
+        <v>3086.2</v>
       </c>
       <c r="K36">
-        <v>60.087000000000003</v>
+        <v>5.9420000000000002</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2380.4140000000002</v>
+        <v>949.18700000000001</v>
       </c>
       <c r="O36">
-        <v>7428.4719999999998</v>
+        <v>4706.8029999999999</v>
       </c>
       <c r="P36">
-        <v>4465.259</v>
+        <v>3097.5419999999999</v>
       </c>
       <c r="Q36">
-        <v>-119.015</v>
+        <v>160.124</v>
       </c>
       <c r="R36">
-        <v>43645</v>
+        <v>39998</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>10698.008</v>
+        <v>7704.2439999999997</v>
       </c>
       <c r="U36">
-        <v>1431.7919999999999</v>
+        <v>2060.203</v>
       </c>
       <c r="V36">
-        <v>537.14700000000005</v>
+        <v>618.80999999999995</v>
       </c>
       <c r="W36">
-        <v>-123.074</v>
+        <v>-110.613</v>
       </c>
       <c r="X36">
-        <v>-289.81</v>
+        <v>-144.381</v>
       </c>
       <c r="Y36">
-        <v>144.96299999999999</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-11.141</v>
+        <v>-185.82499999999999</v>
       </c>
       <c r="AA36">
-        <v>386.483</v>
+        <v>-133.33699999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43736</v>
+        <v>40089</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>275.03100000000001</v>
+        <v>-29.538</v>
       </c>
       <c r="D37">
-        <v>5464.5020000000004</v>
+        <v>3120.0050000000001</v>
       </c>
       <c r="E37">
-        <v>2312.366</v>
+        <v>1156.51</v>
       </c>
       <c r="F37">
-        <v>572.51099999999997</v>
+        <v>119.154</v>
       </c>
       <c r="G37">
-        <v>8684.2880000000005</v>
+        <v>5202.5519999999997</v>
       </c>
       <c r="H37">
-        <v>18506.264999999999</v>
+        <v>12670.012000000001</v>
       </c>
       <c r="I37">
-        <v>1310.67</v>
+        <v>667.04600000000005</v>
       </c>
       <c r="J37">
-        <v>4214.8239999999996</v>
+        <v>3086.2</v>
       </c>
       <c r="K37">
-        <v>47.725000000000001</v>
+        <v>85.628</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2585.9929999999999</v>
+        <v>1312.5509999999999</v>
       </c>
       <c r="O37">
-        <v>7645.232</v>
+        <v>5086.0919999999996</v>
       </c>
       <c r="P37">
-        <v>4457.4160000000002</v>
+        <v>3171.828</v>
       </c>
       <c r="Q37">
-        <v>254.57300000000001</v>
+        <v>-102.532</v>
       </c>
       <c r="R37">
-        <v>43736</v>
+        <v>40089</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>10861.032999999999</v>
+        <v>7583.92</v>
       </c>
       <c r="U37">
-        <v>1686.365</v>
+        <v>1957.671</v>
       </c>
       <c r="V37">
-        <v>932.35900000000004</v>
+        <v>317.30799999999999</v>
       </c>
       <c r="W37">
-        <v>-122.79600000000001</v>
+        <v>-110.96899999999999</v>
       </c>
       <c r="X37">
-        <v>-141.488</v>
+        <v>-222.24</v>
       </c>
       <c r="Y37">
-        <v>148.62700000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-216.059</v>
+        <v>-127.39100000000001</v>
       </c>
       <c r="AA37">
-        <v>275.03100000000001</v>
+        <v>-29.538</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>107.82299999999999</v>
+        <v>58.906999999999996</v>
       </c>
       <c r="D38">
-        <v>5131.7460000000001</v>
+        <v>2937.944</v>
       </c>
       <c r="E38">
-        <v>2160.1019999999999</v>
+        <v>1116.0350000000001</v>
       </c>
       <c r="F38">
-        <v>456.46300000000002</v>
+        <v>221.12</v>
       </c>
       <c r="G38">
-        <v>8226.3700000000008</v>
+        <v>5182.2479999999996</v>
       </c>
       <c r="H38">
-        <v>18344.666000000001</v>
+        <v>12571.904</v>
       </c>
       <c r="I38">
-        <v>1085.298</v>
+        <v>633.33799999999997</v>
       </c>
       <c r="J38">
-        <v>4215.3410000000003</v>
+        <v>3080.2</v>
       </c>
       <c r="K38">
-        <v>178.84399999999999</v>
+        <v>75.447999999999993</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2463.7739999999999</v>
+        <v>1227.057</v>
       </c>
       <c r="O38">
-        <v>7553.49</v>
+        <v>4987.6149999999998</v>
       </c>
       <c r="P38">
-        <v>4591.933</v>
+        <v>3161.6480000000001</v>
       </c>
       <c r="Q38">
-        <v>-151.76</v>
+        <v>59.31</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>26800</v>
+        <v>20400</v>
       </c>
       <c r="T38">
-        <v>10791.175999999999</v>
+        <v>7584.2889999999998</v>
       </c>
       <c r="U38">
-        <v>1534.605</v>
+        <v>2016.981</v>
       </c>
       <c r="V38">
-        <v>689.19899999999996</v>
+        <v>222.934</v>
       </c>
       <c r="W38">
-        <v>-122.792</v>
+        <v>-111.01300000000001</v>
       </c>
       <c r="X38">
-        <v>-215.874</v>
+        <v>-116.568</v>
       </c>
       <c r="Y38">
-        <v>150.83699999999999</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-68.644999999999996</v>
+        <v>33.121000000000002</v>
       </c>
       <c r="AA38">
-        <v>107.82299999999999</v>
+        <v>58.906999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43925</v>
+        <v>40271</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>20.331</v>
+        <v>30.963999999999999</v>
       </c>
       <c r="D39">
-        <v>5624.3370000000004</v>
+        <v>3654.8420000000001</v>
       </c>
       <c r="E39">
-        <v>2273.1570000000002</v>
+        <v>1302.316</v>
       </c>
       <c r="F39">
-        <v>629.26800000000003</v>
+        <v>212.79499999999999</v>
       </c>
       <c r="G39">
-        <v>7847.2510000000002</v>
+        <v>5461.7860000000001</v>
       </c>
       <c r="H39">
-        <v>17866.061000000002</v>
+        <v>12802.701999999999</v>
       </c>
       <c r="I39">
-        <v>1072.6379999999999</v>
+        <v>888.35799999999995</v>
       </c>
       <c r="J39">
-        <v>4243.1809999999996</v>
+        <v>3080.2</v>
       </c>
       <c r="K39">
-        <v>170.261</v>
+        <v>62.174999999999997</v>
       </c>
       <c r="L39">
-        <v>-9.1829999999999998</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>2218.5720000000001</v>
+        <v>1541.1559999999999</v>
       </c>
       <c r="O39">
-        <v>7269.9920000000002</v>
+        <v>5293.36</v>
       </c>
       <c r="P39">
-        <v>4442.8389999999999</v>
+        <v>3148.375</v>
       </c>
       <c r="Q39">
-        <v>-289.44799999999998</v>
+        <v>-357.392</v>
       </c>
       <c r="R39">
-        <v>43925</v>
+        <v>40271</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>10596.069</v>
+        <v>7509.3419999999996</v>
       </c>
       <c r="U39">
-        <v>1245.1569999999999</v>
+        <v>1659.5889999999999</v>
       </c>
       <c r="V39">
-        <v>201.20599999999999</v>
+        <v>-3.0369999999999999</v>
       </c>
       <c r="W39">
-        <v>-122.94</v>
+        <v>-114.193</v>
       </c>
       <c r="X39">
-        <v>-228.614</v>
+        <v>-105.21299999999999</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>150.88900000000001</v>
+        <v>-147.072</v>
       </c>
       <c r="AA39">
-        <v>20.331</v>
+        <v>30.963999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44016</v>
+        <v>40362</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>108.881</v>
+        <v>90.992000000000004</v>
       </c>
       <c r="D40">
-        <v>4327.3059999999996</v>
+        <v>4195.9660000000003</v>
       </c>
       <c r="E40">
-        <v>1888.9290000000001</v>
+        <v>1420.731</v>
       </c>
       <c r="F40">
-        <v>377.959</v>
+        <v>308.03699999999998</v>
       </c>
       <c r="G40">
-        <v>8634.9639999999999</v>
+        <v>5186.933</v>
       </c>
       <c r="H40">
-        <v>18765.965</v>
+        <v>12688.18</v>
       </c>
       <c r="I40">
-        <v>836.37099999999998</v>
+        <v>792.68600000000004</v>
       </c>
       <c r="J40">
-        <v>5279.1030000000001</v>
+        <v>3080.2</v>
       </c>
       <c r="K40">
-        <v>130.352</v>
+        <v>96.998999999999995</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1965.038</v>
+        <v>1511.9570000000001</v>
       </c>
       <c r="O40">
-        <v>8142.48</v>
+        <v>5233.0730000000003</v>
       </c>
       <c r="P40">
-        <v>5438.9759999999997</v>
+        <v>3177.1990000000001</v>
       </c>
       <c r="Q40">
-        <v>1544.0319999999999</v>
+        <v>-858.08500000000004</v>
       </c>
       <c r="R40">
-        <v>44016</v>
+        <v>40362</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>10623.485000000001</v>
+        <v>7455.107</v>
       </c>
       <c r="U40">
-        <v>2789.1889999999999</v>
+        <v>801.50400000000002</v>
       </c>
       <c r="V40">
-        <v>1148.7619999999999</v>
+        <v>-290.72199999999998</v>
       </c>
       <c r="W40">
-        <v>-122.679</v>
+        <v>-114.27200000000001</v>
       </c>
       <c r="X40">
-        <v>852.42600000000004</v>
+        <v>-139.334</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>-108.078</v>
+        <v>-321.92899999999997</v>
       </c>
       <c r="AA40">
-        <v>108.881</v>
+        <v>90.992000000000004</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44107</v>
+        <v>40453</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>193.41499999999999</v>
+        <v>23.495000000000001</v>
       </c>
       <c r="D41">
-        <v>4927.96</v>
+        <v>4140.0690000000004</v>
       </c>
       <c r="E41">
-        <v>2119.4209999999998</v>
+        <v>1468.6759999999999</v>
       </c>
       <c r="F41">
-        <v>502.19499999999999</v>
+        <v>190.29</v>
       </c>
       <c r="G41">
-        <v>8965.8469999999998</v>
+        <v>5761.1130000000003</v>
       </c>
       <c r="H41">
-        <v>19519.276999999998</v>
+        <v>13260.924999999999</v>
       </c>
       <c r="I41">
-        <v>1095.787</v>
+        <v>755.38499999999999</v>
       </c>
       <c r="J41">
-        <v>5452.1930000000002</v>
+        <v>3680.2</v>
       </c>
       <c r="K41">
-        <v>178.97800000000001</v>
+        <v>65.492000000000004</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2373.2950000000001</v>
+        <v>1478.2650000000001</v>
       </c>
       <c r="O41">
-        <v>8802.2099999999991</v>
+        <v>5830.576</v>
       </c>
       <c r="P41">
-        <v>5641.6459999999997</v>
+        <v>3745.692</v>
       </c>
       <c r="Q41">
-        <v>209.012</v>
+        <v>1048.5889999999999</v>
       </c>
       <c r="R41">
-        <v>44107</v>
+        <v>40453</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>10717.066999999999</v>
+        <v>7430.3490000000002</v>
       </c>
       <c r="U41">
-        <v>2866.578</v>
+        <v>1850.0930000000001</v>
       </c>
       <c r="V41">
-        <v>855.62300000000005</v>
+        <v>510</v>
       </c>
       <c r="W41">
-        <v>-123.017</v>
+        <v>-114.398</v>
       </c>
       <c r="X41">
-        <v>-27.245000000000001</v>
+        <v>451.39400000000001</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-160.09</v>
+        <v>158.60300000000001</v>
       </c>
       <c r="AA41">
-        <v>193.41499999999999</v>
+        <v>23.495000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>-11.359</v>
+      </c>
+      <c r="D42">
+        <v>3853.75</v>
+      </c>
+      <c r="E42">
+        <v>1439.828</v>
+      </c>
+      <c r="F42">
+        <v>132.54300000000001</v>
+      </c>
+      <c r="G42">
+        <v>5861.1750000000002</v>
+      </c>
+      <c r="H42">
+        <v>13921.91</v>
+      </c>
+      <c r="I42">
+        <v>833.70299999999997</v>
+      </c>
+      <c r="J42">
+        <v>4280.2</v>
+      </c>
+      <c r="K42">
+        <v>76.328000000000003</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1504.4380000000001</v>
+      </c>
+      <c r="O42">
+        <v>6591.2160000000003</v>
+      </c>
+      <c r="P42">
+        <v>4356.5280000000002</v>
+      </c>
+      <c r="Q42">
+        <v>-524.68700000000001</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>20500</v>
+      </c>
+      <c r="T42">
+        <v>7330.6940000000004</v>
+      </c>
+      <c r="U42">
+        <v>1325.4059999999999</v>
+      </c>
+      <c r="V42">
+        <v>657.16300000000001</v>
+      </c>
+      <c r="W42">
+        <v>-114.419</v>
+      </c>
+      <c r="X42">
+        <v>484.98099999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-968.34699999999998</v>
+      </c>
+      <c r="AA42">
+        <v>-11.359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40635</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>159.84100000000001</v>
+      </c>
+      <c r="D43">
+        <v>4833.9340000000002</v>
+      </c>
+      <c r="E43">
+        <v>1704.789</v>
+      </c>
+      <c r="F43">
+        <v>423.73500000000001</v>
+      </c>
+      <c r="G43">
+        <v>6295.61</v>
+      </c>
+      <c r="H43">
+        <v>14344.446</v>
+      </c>
+      <c r="I43">
+        <v>1056.7560000000001</v>
+      </c>
+      <c r="J43">
+        <v>4280.2</v>
+      </c>
+      <c r="K43">
+        <v>74.465000000000003</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1787.626</v>
+      </c>
+      <c r="O43">
+        <v>6890.8549999999996</v>
+      </c>
+      <c r="P43">
+        <v>4354.665</v>
+      </c>
+      <c r="Q43">
+        <v>-172.46199999999999</v>
+      </c>
+      <c r="R43">
+        <v>40635</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>7453.5910000000003</v>
+      </c>
+      <c r="U43">
+        <v>1152.944</v>
+      </c>
+      <c r="V43">
+        <v>47.494999999999997</v>
+      </c>
+      <c r="W43">
+        <v>-115.233</v>
+      </c>
+      <c r="X43">
+        <v>-138.97499999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-13.923999999999999</v>
+      </c>
+      <c r="AA43">
+        <v>159.84100000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40726</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>299.77300000000002</v>
+      </c>
+      <c r="D44">
+        <v>5107.8090000000002</v>
+      </c>
+      <c r="E44">
+        <v>1837.175</v>
+      </c>
+      <c r="F44">
+        <v>649.45000000000005</v>
+      </c>
+      <c r="G44">
+        <v>6716.4949999999999</v>
+      </c>
+      <c r="H44">
+        <v>14733.549000000001</v>
+      </c>
+      <c r="I44">
+        <v>1060.0360000000001</v>
+      </c>
+      <c r="J44">
+        <v>4280.2</v>
+      </c>
+      <c r="K44">
+        <v>98.173000000000002</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2002.6849999999999</v>
+      </c>
+      <c r="O44">
+        <v>7058.1580000000004</v>
+      </c>
+      <c r="P44">
+        <v>4378.3729999999996</v>
+      </c>
+      <c r="Q44">
+        <v>36.6</v>
+      </c>
+      <c r="R44">
+        <v>40726</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>7675.3909999999996</v>
+      </c>
+      <c r="U44">
+        <v>1189.5440000000001</v>
+      </c>
+      <c r="V44">
+        <v>245.227</v>
+      </c>
+      <c r="W44">
+        <v>-115.328</v>
+      </c>
+      <c r="X44">
+        <v>-130.495</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>25.024000000000001</v>
+      </c>
+      <c r="AA44">
+        <v>299.77300000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40817</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>181.518</v>
+      </c>
+      <c r="D45">
+        <v>5252.1440000000002</v>
+      </c>
+      <c r="E45">
+        <v>1838.126</v>
+      </c>
+      <c r="F45">
+        <v>458.13</v>
+      </c>
+      <c r="G45">
+        <v>6893.8959999999997</v>
+      </c>
+      <c r="H45">
+        <v>14807.264999999999</v>
+      </c>
+      <c r="I45">
+        <v>1175.1949999999999</v>
+      </c>
+      <c r="J45">
+        <v>3930.2</v>
+      </c>
+      <c r="K45">
+        <v>7.6239999999999997</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2358.085</v>
+      </c>
+      <c r="O45">
+        <v>7128.0839999999998</v>
+      </c>
+      <c r="P45">
+        <v>4287.8239999999996</v>
+      </c>
+      <c r="Q45">
+        <v>-88.106999999999999</v>
+      </c>
+      <c r="R45">
+        <v>40817</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>7679.1809999999996</v>
+      </c>
+      <c r="U45">
+        <v>1101.4369999999999</v>
+      </c>
+      <c r="V45">
+        <v>390.762</v>
+      </c>
+      <c r="W45">
+        <v>-115.444</v>
+      </c>
+      <c r="X45">
+        <v>-100.379</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-231.70500000000001</v>
+      </c>
+      <c r="AA45">
+        <v>181.518</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>137.05600000000001</v>
+      </c>
+      <c r="D46">
+        <v>4829.6769999999997</v>
+      </c>
+      <c r="E46">
+        <v>1710.7729999999999</v>
+      </c>
+      <c r="F46">
+        <v>350.10500000000002</v>
+      </c>
+      <c r="G46">
+        <v>6708.0810000000001</v>
+      </c>
+      <c r="H46">
+        <v>14570.35</v>
+      </c>
+      <c r="I46">
+        <v>905.04499999999996</v>
+      </c>
+      <c r="J46">
+        <v>3630.2</v>
+      </c>
+      <c r="K46">
+        <v>55.426000000000002</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2396.0590000000002</v>
+      </c>
+      <c r="O46">
+        <v>6863.77</v>
+      </c>
+      <c r="P46">
+        <v>4335.6260000000002</v>
+      </c>
+      <c r="Q46">
+        <v>99.207999999999998</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>20800</v>
+      </c>
+      <c r="T46">
+        <v>7706.58</v>
+      </c>
+      <c r="U46">
+        <v>1200.645</v>
+      </c>
+      <c r="V46">
+        <v>347.56900000000002</v>
+      </c>
+      <c r="W46">
+        <v>-115.51300000000001</v>
+      </c>
+      <c r="X46">
+        <v>-125.173</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-34.363999999999997</v>
+      </c>
+      <c r="AA46">
+        <v>137.05600000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>145.10400000000001</v>
+      </c>
+      <c r="D47">
+        <v>5072.5940000000001</v>
+      </c>
+      <c r="E47">
+        <v>1791.6949999999999</v>
+      </c>
+      <c r="F47">
+        <v>380.52699999999999</v>
+      </c>
+      <c r="G47">
+        <v>6859.4849999999997</v>
+      </c>
+      <c r="H47">
+        <v>14814.465</v>
+      </c>
+      <c r="I47">
+        <v>1118.133</v>
+      </c>
+      <c r="J47">
+        <v>3630.2</v>
+      </c>
+      <c r="K47">
+        <v>78.34</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>2549.047</v>
+      </c>
+      <c r="O47">
+        <v>7018.7629999999999</v>
+      </c>
+      <c r="P47">
+        <v>4358.54</v>
+      </c>
+      <c r="Q47">
+        <v>-20.831</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>7795.7020000000002</v>
+      </c>
+      <c r="U47">
+        <v>1179.8140000000001</v>
+      </c>
+      <c r="V47">
+        <v>201.81899999999999</v>
+      </c>
+      <c r="W47">
+        <v>-116.325</v>
+      </c>
+      <c r="X47">
+        <v>-138.59100000000001</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>126.215</v>
+      </c>
+      <c r="AA47">
+        <v>145.10400000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>112.29900000000001</v>
+      </c>
+      <c r="D48">
+        <v>5104.1989999999996</v>
+      </c>
+      <c r="E48">
+        <v>1919.4649999999999</v>
+      </c>
+      <c r="F48">
+        <v>399.93</v>
+      </c>
+      <c r="G48">
+        <v>6486.3440000000001</v>
+      </c>
+      <c r="H48">
+        <v>14766.566000000001</v>
+      </c>
+      <c r="I48">
+        <v>1025.8710000000001</v>
+      </c>
+      <c r="J48">
+        <v>3380.2</v>
+      </c>
+      <c r="K48">
+        <v>108.709</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2757.288</v>
+      </c>
+      <c r="O48">
+        <v>6984.0069999999996</v>
+      </c>
+      <c r="P48">
+        <v>4388.9089999999997</v>
+      </c>
+      <c r="Q48">
+        <v>-67.825000000000003</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>7782.5590000000002</v>
+      </c>
+      <c r="U48">
+        <v>1111.989</v>
+      </c>
+      <c r="V48">
+        <v>244.667</v>
+      </c>
+      <c r="W48">
+        <v>-116.441</v>
+      </c>
+      <c r="X48">
+        <v>-131.05000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>621.76400000000001</v>
+      </c>
+      <c r="AA48">
+        <v>112.29900000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>110.30800000000001</v>
+      </c>
+      <c r="D49">
+        <v>4801.2060000000001</v>
+      </c>
+      <c r="E49">
+        <v>1799.3050000000001</v>
+      </c>
+      <c r="F49">
+        <v>376.93299999999999</v>
+      </c>
+      <c r="G49">
+        <v>6622.0730000000003</v>
+      </c>
+      <c r="H49">
+        <v>14997.246999999999</v>
+      </c>
+      <c r="I49">
+        <v>1079.865</v>
+      </c>
+      <c r="J49">
+        <v>3380.2</v>
+      </c>
+      <c r="K49">
+        <v>137.66499999999999</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2887.027</v>
+      </c>
+      <c r="O49">
+        <v>7133.6729999999998</v>
+      </c>
+      <c r="P49">
+        <v>4417.8649999999998</v>
+      </c>
+      <c r="Q49">
+        <v>581.20799999999997</v>
+      </c>
+      <c r="R49">
+        <v>41181</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>7863.5739999999996</v>
+      </c>
+      <c r="U49">
+        <v>1693.1969999999999</v>
+      </c>
+      <c r="V49">
+        <v>678.19799999999998</v>
+      </c>
+      <c r="W49">
+        <v>-116.77200000000001</v>
+      </c>
+      <c r="X49">
+        <v>-101.622</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>150.608</v>
+      </c>
+      <c r="AA49">
+        <v>110.30800000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>136.90799999999999</v>
+      </c>
+      <c r="D50">
+        <v>4451.2740000000003</v>
+      </c>
+      <c r="E50">
+        <v>1707.317</v>
+      </c>
+      <c r="F50">
+        <v>396.34800000000001</v>
+      </c>
+      <c r="G50">
+        <v>5661.3639999999996</v>
+      </c>
+      <c r="H50">
+        <v>14152.058999999999</v>
+      </c>
+      <c r="I50">
+        <v>992.91300000000001</v>
+      </c>
+      <c r="J50">
+        <v>3380.2</v>
+      </c>
+      <c r="K50">
+        <v>83.712000000000003</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2029.568</v>
+      </c>
+      <c r="O50">
+        <v>6266.6850000000004</v>
+      </c>
+      <c r="P50">
+        <v>3713.9119999999998</v>
+      </c>
+      <c r="Q50">
+        <v>-640.33500000000004</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>22200</v>
+      </c>
+      <c r="T50">
+        <v>7885.3739999999998</v>
+      </c>
+      <c r="U50">
+        <v>1052.8620000000001</v>
+      </c>
+      <c r="V50">
+        <v>75.700999999999993</v>
+      </c>
+      <c r="W50">
+        <v>-116.82299999999999</v>
+      </c>
+      <c r="X50">
+        <v>-775.61400000000003</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>244.126</v>
+      </c>
+      <c r="AA50">
+        <v>136.90799999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41363</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>84.789000000000001</v>
+      </c>
+      <c r="D51">
+        <v>4550.7719999999999</v>
+      </c>
+      <c r="E51">
+        <v>1791.3209999999999</v>
+      </c>
+      <c r="F51">
+        <v>303.21600000000001</v>
+      </c>
+      <c r="G51">
+        <v>5546.741</v>
+      </c>
+      <c r="H51">
+        <v>14039.01</v>
+      </c>
+      <c r="I51">
+        <v>1021.076</v>
+      </c>
+      <c r="J51">
+        <v>3380.2</v>
+      </c>
+      <c r="K51">
+        <v>42.384</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1986.9870000000001</v>
+      </c>
+      <c r="O51">
+        <v>6236.7669999999998</v>
+      </c>
+      <c r="P51">
+        <v>3672.5839999999998</v>
+      </c>
+      <c r="Q51">
+        <v>-150.16200000000001</v>
+      </c>
+      <c r="R51">
+        <v>41363</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>7802.2430000000004</v>
+      </c>
+      <c r="U51">
+        <v>902.7</v>
+      </c>
+      <c r="V51">
+        <v>128.81100000000001</v>
+      </c>
+      <c r="W51">
+        <v>-117.61799999999999</v>
+      </c>
+      <c r="X51">
+        <v>-139.09100000000001</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>60.25</v>
+      </c>
+      <c r="AA51">
+        <v>84.789000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41454</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>85.144999999999996</v>
+      </c>
+      <c r="D52">
+        <v>4665.5879999999997</v>
+      </c>
+      <c r="E52">
+        <v>1767.1769999999999</v>
+      </c>
+      <c r="F52">
+        <v>313.125</v>
+      </c>
+      <c r="G52">
+        <v>5183.1629999999996</v>
+      </c>
+      <c r="H52">
+        <v>13766.651</v>
+      </c>
+      <c r="I52">
+        <v>979.22</v>
+      </c>
+      <c r="J52">
+        <v>3380.2</v>
+      </c>
+      <c r="K52">
+        <v>31.667999999999999</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1740.576</v>
+      </c>
+      <c r="O52">
+        <v>5995.4210000000003</v>
+      </c>
+      <c r="P52">
+        <v>3411.8679999999999</v>
+      </c>
+      <c r="Q52">
+        <v>-272.233</v>
+      </c>
+      <c r="R52">
+        <v>41454</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>7771.23</v>
+      </c>
+      <c r="U52">
+        <v>630.46699999999998</v>
+      </c>
+      <c r="V52">
+        <v>356.16300000000001</v>
+      </c>
+      <c r="W52">
+        <v>-117.66200000000001</v>
+      </c>
+      <c r="X52">
+        <v>-399.85</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-19.196999999999999</v>
+      </c>
+      <c r="AA52">
+        <v>85.144999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41545</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>147.59700000000001</v>
+      </c>
+      <c r="D53">
+        <v>4940.9359999999997</v>
+      </c>
+      <c r="E53">
+        <v>1918.165</v>
+      </c>
+      <c r="F53">
+        <v>408.54300000000001</v>
+      </c>
+      <c r="G53">
+        <v>6468.8770000000004</v>
+      </c>
+      <c r="H53">
+        <v>15091.776</v>
+      </c>
+      <c r="I53">
+        <v>1137.3520000000001</v>
+      </c>
+      <c r="J53">
+        <v>4380.2</v>
+      </c>
+      <c r="K53">
+        <v>38.203000000000003</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1993.489</v>
+      </c>
+      <c r="O53">
+        <v>7228.5029999999997</v>
+      </c>
+      <c r="P53">
+        <v>4418.4030000000002</v>
+      </c>
+      <c r="Q53">
+        <v>1092.442</v>
+      </c>
+      <c r="R53">
+        <v>41545</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>7863.2730000000001</v>
+      </c>
+      <c r="U53">
+        <v>1722.9090000000001</v>
+      </c>
+      <c r="V53">
+        <v>398.666</v>
+      </c>
+      <c r="W53">
+        <v>-117.875</v>
+      </c>
+      <c r="X53">
+        <v>874.48400000000004</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-9.7360000000000007</v>
+      </c>
+      <c r="AA53">
+        <v>147.59700000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>170.494</v>
+      </c>
+      <c r="D54">
+        <v>4894.75</v>
+      </c>
+      <c r="E54">
+        <v>1810.9870000000001</v>
+      </c>
+      <c r="F54">
+        <v>385.74099999999999</v>
+      </c>
+      <c r="G54">
+        <v>6410.0460000000003</v>
+      </c>
+      <c r="H54">
+        <v>15203.282999999999</v>
+      </c>
+      <c r="I54">
+        <v>1035.4780000000001</v>
+      </c>
+      <c r="J54">
+        <v>4376.8999999999996</v>
+      </c>
+      <c r="K54">
+        <v>110.80200000000001</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1960.2159999999999</v>
+      </c>
+      <c r="O54">
+        <v>7293.0050000000001</v>
+      </c>
+      <c r="P54">
+        <v>4491.0020000000004</v>
+      </c>
+      <c r="Q54">
+        <v>-239.65700000000001</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>22300</v>
+      </c>
+      <c r="T54">
+        <v>7910.2780000000002</v>
+      </c>
+      <c r="U54">
+        <v>1483.252</v>
+      </c>
+      <c r="V54">
+        <v>194.309</v>
+      </c>
+      <c r="W54">
+        <v>-117.873</v>
+      </c>
+      <c r="X54">
+        <v>-139.499</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>11.542</v>
+      </c>
+      <c r="AA54">
+        <v>170.494</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41734</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>111.03100000000001</v>
+      </c>
+      <c r="D55">
+        <v>5108.4440000000004</v>
+      </c>
+      <c r="E55">
+        <v>1900.2929999999999</v>
+      </c>
+      <c r="F55">
+        <v>377.202</v>
+      </c>
+      <c r="G55">
+        <v>6309.8729999999996</v>
+      </c>
+      <c r="H55">
+        <v>15118.011</v>
+      </c>
+      <c r="I55">
+        <v>1062.5719999999999</v>
+      </c>
+      <c r="J55">
+        <v>4376.8999999999996</v>
+      </c>
+      <c r="K55">
+        <v>27.071999999999999</v>
+      </c>
+      <c r="L55">
+        <v>-2.13</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1895.9680000000001</v>
+      </c>
+      <c r="O55">
+        <v>7257.4759999999997</v>
+      </c>
+      <c r="P55">
+        <v>4432.0720000000001</v>
+      </c>
+      <c r="Q55">
+        <v>-330.71</v>
+      </c>
+      <c r="R55">
+        <v>41734</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>7860.5349999999999</v>
+      </c>
+      <c r="U55">
+        <v>1152.5419999999999</v>
+      </c>
+      <c r="V55">
+        <v>149.214</v>
+      </c>
+      <c r="W55">
+        <v>-118.68</v>
+      </c>
+      <c r="X55">
+        <v>-145.905</v>
+      </c>
+      <c r="Y55">
+        <v>22.7</v>
+      </c>
+      <c r="Z55">
+        <v>-76.575999999999993</v>
+      </c>
+      <c r="AA55">
+        <v>111.03100000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41825</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>147.041</v>
+      </c>
+      <c r="D56">
+        <v>5291.0749999999998</v>
+      </c>
+      <c r="E56">
+        <v>2071.4389999999999</v>
+      </c>
+      <c r="F56">
+        <v>415.86700000000002</v>
+      </c>
+      <c r="G56">
+        <v>6494.79</v>
+      </c>
+      <c r="H56">
+        <v>15310.888000000001</v>
+      </c>
+      <c r="I56">
+        <v>1124.077</v>
+      </c>
+      <c r="J56">
+        <v>4368.8999999999996</v>
+      </c>
+      <c r="K56">
+        <v>42.414000000000001</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2017.2260000000001</v>
+      </c>
+      <c r="O56">
+        <v>7364.875</v>
+      </c>
+      <c r="P56">
+        <v>4446.8140000000003</v>
+      </c>
+      <c r="Q56">
+        <v>-84.980999999999995</v>
+      </c>
+      <c r="R56">
+        <v>41825</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>7946.0129999999999</v>
+      </c>
+      <c r="U56">
+        <v>1067.5609999999999</v>
+      </c>
+      <c r="V56">
+        <v>294.11500000000001</v>
+      </c>
+      <c r="W56">
+        <v>-118.68899999999999</v>
+      </c>
+      <c r="X56">
+        <v>-114.55200000000001</v>
+      </c>
+      <c r="Y56">
+        <v>22.1</v>
+      </c>
+      <c r="Z56">
+        <v>-49.386000000000003</v>
+      </c>
+      <c r="AA56">
+        <v>147.041</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41916</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>245.447</v>
+      </c>
+      <c r="D57">
+        <v>5701.8689999999997</v>
+      </c>
+      <c r="E57">
+        <v>2243.9079999999999</v>
+      </c>
+      <c r="F57">
+        <v>599.58600000000001</v>
+      </c>
+      <c r="G57">
+        <v>6796.2439999999997</v>
+      </c>
+      <c r="H57">
+        <v>15493.593999999999</v>
+      </c>
+      <c r="I57">
+        <v>1113.2840000000001</v>
+      </c>
+      <c r="J57">
+        <v>4360.6000000000004</v>
+      </c>
+      <c r="K57">
+        <v>41.100999999999999</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2156.4960000000001</v>
+      </c>
+      <c r="O57">
+        <v>7477.8909999999996</v>
+      </c>
+      <c r="P57">
+        <v>4441.701</v>
+      </c>
+      <c r="Q57">
+        <v>228.38399999999999</v>
+      </c>
+      <c r="R57">
+        <v>41916</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>8015.7030000000004</v>
+      </c>
+      <c r="U57">
+        <v>1295.9449999999999</v>
+      </c>
+      <c r="V57">
+        <v>482.23399999999998</v>
+      </c>
+      <c r="W57">
+        <v>-118.861</v>
+      </c>
+      <c r="X57">
+        <v>-132.56</v>
+      </c>
+      <c r="Y57">
+        <v>21.5</v>
+      </c>
+      <c r="Z57">
+        <v>-14.137</v>
+      </c>
+      <c r="AA57">
+        <v>245.447</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>210.42699999999999</v>
+      </c>
+      <c r="D58">
+        <v>5003.7529999999997</v>
+      </c>
+      <c r="E58">
+        <v>2068.2979999999998</v>
+      </c>
+      <c r="F58">
+        <v>522.77099999999996</v>
+      </c>
+      <c r="G58">
+        <v>6441.8879999999999</v>
+      </c>
+      <c r="H58">
+        <v>15615.927</v>
+      </c>
+      <c r="I58">
+        <v>885.97199999999998</v>
+      </c>
+      <c r="J58">
+        <v>4360.6000000000004</v>
+      </c>
+      <c r="K58">
+        <v>315.37599999999998</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2097.7759999999998</v>
+      </c>
+      <c r="O58">
+        <v>7540.8090000000002</v>
+      </c>
+      <c r="P58">
+        <v>4715.5110000000004</v>
+      </c>
+      <c r="Q58">
+        <v>-271.80099999999999</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>23600</v>
+      </c>
+      <c r="T58">
+        <v>8075.1180000000004</v>
+      </c>
+      <c r="U58">
+        <v>1024.144</v>
+      </c>
+      <c r="V58">
+        <v>417.33499999999998</v>
+      </c>
+      <c r="W58">
+        <v>-118.893</v>
+      </c>
+      <c r="X58">
+        <v>33.97</v>
+      </c>
+      <c r="Y58">
+        <v>21</v>
+      </c>
+      <c r="Z58">
+        <v>91.787000000000006</v>
+      </c>
+      <c r="AA58">
+        <v>210.42699999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42098</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>67.8</v>
+      </c>
+      <c r="D59">
+        <v>4399.4399999999996</v>
+      </c>
+      <c r="E59">
+        <v>1711.1010000000001</v>
+      </c>
+      <c r="F59">
+        <v>288.28199999999998</v>
+      </c>
+      <c r="G59">
+        <v>5862.9889999999996</v>
+      </c>
+      <c r="H59">
+        <v>14855.438</v>
+      </c>
+      <c r="I59">
+        <v>746.18399999999997</v>
+      </c>
+      <c r="J59">
+        <v>4360.6000000000004</v>
+      </c>
+      <c r="K59">
+        <v>26.890999999999998</v>
+      </c>
+      <c r="L59">
+        <v>-180.239</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1524.806</v>
+      </c>
+      <c r="O59">
+        <v>6949.7669999999998</v>
+      </c>
+      <c r="P59">
+        <v>4426.3909999999996</v>
+      </c>
+      <c r="Q59">
+        <v>129.79300000000001</v>
+      </c>
+      <c r="R59">
+        <v>42098</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>7905.6710000000003</v>
+      </c>
+      <c r="U59">
+        <v>1153.9369999999999</v>
+      </c>
+      <c r="V59">
+        <v>563.69399999999996</v>
+      </c>
+      <c r="W59">
+        <v>-119.712</v>
+      </c>
+      <c r="X59">
+        <v>-324.84500000000003</v>
+      </c>
+      <c r="Y59">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="Z59">
+        <v>-32.703000000000003</v>
+      </c>
+      <c r="AA59">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42189</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>124.755</v>
+      </c>
+      <c r="D60">
+        <v>4357.6090000000004</v>
+      </c>
+      <c r="E60">
+        <v>1791.5229999999999</v>
+      </c>
+      <c r="F60">
+        <v>386.30599999999998</v>
+      </c>
+      <c r="G60">
+        <v>6154.7370000000001</v>
+      </c>
+      <c r="H60">
+        <v>15068.177</v>
+      </c>
+      <c r="I60">
+        <v>820.55700000000002</v>
+      </c>
+      <c r="J60">
+        <v>4360.6000000000004</v>
+      </c>
+      <c r="K60">
+        <v>42.664000000000001</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1690.077</v>
+      </c>
+      <c r="O60">
+        <v>7093.0919999999996</v>
+      </c>
+      <c r="P60">
+        <v>4433.6639999999998</v>
+      </c>
+      <c r="Q60">
+        <v>422.55900000000003</v>
+      </c>
+      <c r="R60">
+        <v>42189</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>7975.085</v>
+      </c>
+      <c r="U60">
+        <v>1576.4960000000001</v>
+      </c>
+      <c r="V60">
+        <v>631.01</v>
+      </c>
+      <c r="W60">
+        <v>-119.764</v>
+      </c>
+      <c r="X60">
+        <v>-125.902</v>
+      </c>
+      <c r="Y60">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="Z60">
+        <v>-2.9740000000000002</v>
+      </c>
+      <c r="AA60">
+        <v>124.755</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42280</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>227.126</v>
+      </c>
+      <c r="D61">
+        <v>4225.5140000000001</v>
+      </c>
+      <c r="E61">
+        <v>1716.356</v>
+      </c>
+      <c r="F61">
+        <v>523.83600000000001</v>
+      </c>
+      <c r="G61">
+        <v>6465.7309999999998</v>
+      </c>
+      <c r="H61">
+        <v>15269.468000000001</v>
+      </c>
+      <c r="I61">
+        <v>907.33199999999999</v>
+      </c>
+      <c r="J61">
+        <v>4360.6000000000004</v>
+      </c>
+      <c r="K61">
+        <v>54.600999999999999</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1847.4110000000001</v>
+      </c>
+      <c r="O61">
+        <v>7222.1270000000004</v>
+      </c>
+      <c r="P61">
+        <v>4436.8010000000004</v>
+      </c>
+      <c r="Q61">
+        <v>318.92899999999997</v>
+      </c>
+      <c r="R61">
+        <v>42280</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>8047.3410000000003</v>
+      </c>
+      <c r="U61">
+        <v>1895.425</v>
+      </c>
+      <c r="V61">
+        <v>562.59500000000003</v>
+      </c>
+      <c r="W61">
+        <v>-119.985</v>
+      </c>
+      <c r="X61">
+        <v>-133.13499999999999</v>
+      </c>
+      <c r="Y61">
+        <v>19.3</v>
+      </c>
+      <c r="Z61">
+        <v>-6.069</v>
+      </c>
+      <c r="AA61">
+        <v>227.126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-338.95699999999999</v>
+      </c>
+      <c r="D62">
+        <v>3456.7130000000002</v>
+      </c>
+      <c r="E62">
+        <v>1383.8230000000001</v>
+      </c>
+      <c r="F62">
+        <v>-84.534000000000006</v>
+      </c>
+      <c r="G62">
+        <v>5854.4049999999997</v>
+      </c>
+      <c r="H62">
+        <v>14326.968999999999</v>
+      </c>
+      <c r="I62">
+        <v>503.72699999999998</v>
+      </c>
+      <c r="J62">
+        <v>4337.1450000000004</v>
+      </c>
+      <c r="K62">
+        <v>114.11499999999999</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1385.173</v>
+      </c>
+      <c r="O62">
+        <v>6477.0919999999996</v>
+      </c>
+      <c r="P62">
+        <v>4451.26</v>
+      </c>
+      <c r="Q62">
+        <v>44.043999999999997</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>23700</v>
+      </c>
+      <c r="T62">
+        <v>7849.8770000000004</v>
+      </c>
+      <c r="U62">
+        <v>1939.4690000000001</v>
+      </c>
+      <c r="V62">
+        <v>399.74400000000003</v>
+      </c>
+      <c r="W62">
+        <v>-119.971</v>
+      </c>
+      <c r="X62">
+        <v>-205.869</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-39.137999999999998</v>
+      </c>
+      <c r="AA62">
+        <v>-338.95699999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42462</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>87.564999999999998</v>
+      </c>
+      <c r="D63">
+        <v>3715.576</v>
+      </c>
+      <c r="E63">
+        <v>1493.8920000000001</v>
+      </c>
+      <c r="F63">
+        <v>314.98500000000001</v>
+      </c>
+      <c r="G63">
+        <v>6006.1490000000003</v>
+      </c>
+      <c r="H63">
+        <v>14395.103999999999</v>
+      </c>
+      <c r="I63">
+        <v>758.70299999999997</v>
+      </c>
+      <c r="J63">
+        <v>4337.875</v>
+      </c>
+      <c r="K63">
+        <v>36.655000000000001</v>
+      </c>
+      <c r="L63">
+        <v>-14.670999999999999</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1550.13</v>
+      </c>
+      <c r="O63">
+        <v>6617.0320000000002</v>
+      </c>
+      <c r="P63">
+        <v>4374.53</v>
+      </c>
+      <c r="Q63">
+        <v>339.01900000000001</v>
+      </c>
+      <c r="R63">
+        <v>42462</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>7778.0720000000001</v>
+      </c>
+      <c r="U63">
+        <v>2278.4879999999998</v>
+      </c>
+      <c r="V63">
+        <v>550.85900000000004</v>
+      </c>
+      <c r="W63">
+        <v>-120.15300000000001</v>
+      </c>
+      <c r="X63">
+        <v>-190.05600000000001</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>43.902000000000001</v>
+      </c>
+      <c r="AA63">
+        <v>87.564999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42553</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>243.62</v>
+      </c>
+      <c r="D64">
+        <v>4245.7719999999999</v>
+      </c>
+      <c r="E64">
+        <v>1789.942</v>
+      </c>
+      <c r="F64">
+        <v>585.26</v>
+      </c>
+      <c r="G64">
+        <v>6538.4979999999996</v>
+      </c>
+      <c r="H64">
+        <v>14924.583000000001</v>
+      </c>
+      <c r="I64">
+        <v>1023.213</v>
+      </c>
+      <c r="J64">
+        <v>4337.5609999999997</v>
+      </c>
+      <c r="K64">
+        <v>19.951000000000001</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1936.1079999999999</v>
+      </c>
+      <c r="O64">
+        <v>7003.8739999999998</v>
+      </c>
+      <c r="P64">
+        <v>4357.5119999999997</v>
+      </c>
+      <c r="Q64">
+        <v>-497.33800000000002</v>
+      </c>
+      <c r="R64">
+        <v>42553</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>7920.7089999999998</v>
+      </c>
+      <c r="U64">
+        <v>1781.15</v>
+      </c>
+      <c r="V64">
+        <v>315.51299999999998</v>
+      </c>
+      <c r="W64">
+        <v>-120.149</v>
+      </c>
+      <c r="X64">
+        <v>-176.71700000000001</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-506.41</v>
+      </c>
+      <c r="AA64">
+        <v>243.62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>305.447</v>
+      </c>
+      <c r="D65">
+        <v>4290.2359999999999</v>
+      </c>
+      <c r="E65">
+        <v>1850.4549999999999</v>
+      </c>
+      <c r="F65">
+        <v>682.23599999999999</v>
+      </c>
+      <c r="G65">
+        <v>6700.4219999999996</v>
+      </c>
+      <c r="H65">
+        <v>15113.679</v>
+      </c>
+      <c r="I65">
+        <v>926.11800000000005</v>
+      </c>
+      <c r="J65">
+        <v>4338.3469999999998</v>
+      </c>
+      <c r="K65">
+        <v>29.795000000000002</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1898.4870000000001</v>
+      </c>
+      <c r="O65">
+        <v>7023.1629999999996</v>
+      </c>
+      <c r="P65">
+        <v>4368.1419999999998</v>
+      </c>
+      <c r="Q65">
+        <v>-76.442999999999998</v>
+      </c>
+      <c r="R65">
+        <v>42644</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>8090.5159999999996</v>
+      </c>
+      <c r="U65">
+        <v>1704.7070000000001</v>
+      </c>
+      <c r="V65">
+        <v>315.71800000000002</v>
+      </c>
+      <c r="W65">
+        <v>-120.373</v>
+      </c>
+      <c r="X65">
+        <v>-115.791</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-135.65899999999999</v>
+      </c>
+      <c r="AA65">
+        <v>305.447</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>159.63900000000001</v>
+      </c>
+      <c r="D66">
+        <v>3956.538</v>
+      </c>
+      <c r="E66">
+        <v>1631.6759999999999</v>
+      </c>
+      <c r="F66">
+        <v>443.42599999999999</v>
+      </c>
+      <c r="G66">
+        <v>6506.393</v>
+      </c>
+      <c r="H66">
+        <v>15223.518</v>
+      </c>
+      <c r="I66">
+        <v>776.80899999999997</v>
+      </c>
+      <c r="J66">
+        <v>3739.1410000000001</v>
+      </c>
+      <c r="K66">
+        <v>79.259</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2389.9659999999999</v>
+      </c>
+      <c r="O66">
+        <v>6968.81</v>
+      </c>
+      <c r="P66">
+        <v>4418.3999999999996</v>
+      </c>
+      <c r="Q66">
+        <v>341.25400000000002</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>23900</v>
+      </c>
+      <c r="T66">
+        <v>8254.7080000000005</v>
+      </c>
+      <c r="U66">
+        <v>2045.961</v>
+      </c>
+      <c r="V66">
+        <v>567.83000000000004</v>
+      </c>
+      <c r="W66">
+        <v>-120.408</v>
+      </c>
+      <c r="X66">
+        <v>-143.78899999999999</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>620</v>
+      </c>
+      <c r="AA66">
+        <v>159.63900000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>356.899</v>
+      </c>
+      <c r="D67">
+        <v>4815.1790000000001</v>
+      </c>
+      <c r="E67">
+        <v>1980.556</v>
+      </c>
+      <c r="F67">
+        <v>760.25</v>
+      </c>
+      <c r="G67">
+        <v>6878.1930000000002</v>
+      </c>
+      <c r="H67">
+        <v>15875.46</v>
+      </c>
+      <c r="I67">
+        <v>1257.9000000000001</v>
+      </c>
+      <c r="J67">
+        <v>3739.9079999999999</v>
+      </c>
+      <c r="K67">
+        <v>48.152999999999999</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2837.7959999999998</v>
+      </c>
+      <c r="O67">
+        <v>7407.3890000000001</v>
+      </c>
+      <c r="P67">
+        <v>4388.0609999999997</v>
+      </c>
+      <c r="Q67">
+        <v>-388.202</v>
+      </c>
+      <c r="R67">
+        <v>42826</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>8468.0709999999999</v>
+      </c>
+      <c r="U67">
+        <v>1657.759</v>
+      </c>
+      <c r="V67">
+        <v>244.142</v>
+      </c>
+      <c r="W67">
+        <v>-121.303</v>
+      </c>
+      <c r="X67">
+        <v>-147.102</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>86</v>
+      </c>
+      <c r="AA67">
+        <v>356.899</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>323.048</v>
+      </c>
+      <c r="D68">
+        <v>5174.7690000000002</v>
+      </c>
+      <c r="E68">
+        <v>2081.15</v>
+      </c>
+      <c r="F68">
+        <v>709.625</v>
+      </c>
+      <c r="G68">
+        <v>7182.692</v>
+      </c>
+      <c r="H68">
+        <v>16112.725</v>
+      </c>
+      <c r="I68">
+        <v>1214.3130000000001</v>
+      </c>
+      <c r="J68">
+        <v>3240.694</v>
+      </c>
+      <c r="K68">
+        <v>39.197000000000003</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>3325.306</v>
+      </c>
+      <c r="O68">
+        <v>7400.8119999999999</v>
+      </c>
+      <c r="P68">
+        <v>4379.8909999999996</v>
+      </c>
+      <c r="Q68">
+        <v>-146.40600000000001</v>
+      </c>
+      <c r="R68">
+        <v>42917</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>8711.9130000000005</v>
+      </c>
+      <c r="U68">
+        <v>1511.3530000000001</v>
+      </c>
+      <c r="V68">
+        <v>106.71899999999999</v>
+      </c>
+      <c r="W68">
+        <v>-121.401</v>
+      </c>
+      <c r="X68">
+        <v>-164.53800000000001</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-5</v>
+      </c>
+      <c r="AA68">
+        <v>323.048</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>254.85</v>
+      </c>
+      <c r="D69">
+        <v>5170.1170000000002</v>
+      </c>
+      <c r="E69">
+        <v>2113.89</v>
+      </c>
+      <c r="F69">
+        <v>578.96400000000006</v>
+      </c>
+      <c r="G69">
+        <v>7500.6469999999999</v>
+      </c>
+      <c r="H69">
+        <v>16503.833999999999</v>
+      </c>
+      <c r="I69">
+        <v>1312.817</v>
+      </c>
+      <c r="J69">
+        <v>3241.4879999999998</v>
+      </c>
+      <c r="K69">
+        <v>50.37</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>3555.4659999999999</v>
+      </c>
+      <c r="O69">
+        <v>7658.02</v>
+      </c>
+      <c r="P69">
+        <v>4391.8580000000002</v>
+      </c>
+      <c r="Q69">
+        <v>64.590999999999994</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>8845.8140000000003</v>
+      </c>
+      <c r="U69">
+        <v>1575.944</v>
+      </c>
+      <c r="V69">
+        <v>415.70699999999999</v>
+      </c>
+      <c r="W69">
+        <v>-121.598</v>
+      </c>
+      <c r="X69">
+        <v>-205.898</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>254.85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>383.89100000000002</v>
+      </c>
+      <c r="D70">
+        <v>5092.3280000000004</v>
+      </c>
+      <c r="E70">
+        <v>2028.5450000000001</v>
+      </c>
+      <c r="F70">
+        <v>530.36800000000005</v>
+      </c>
+      <c r="G70">
+        <v>6824.42</v>
+      </c>
+      <c r="H70">
+        <v>15841.258</v>
+      </c>
+      <c r="I70">
+        <v>1042.146</v>
+      </c>
+      <c r="J70">
+        <v>3242.2420000000002</v>
+      </c>
+      <c r="K70">
+        <v>192.03299999999999</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2824.7640000000001</v>
+      </c>
+      <c r="O70">
+        <v>6756.47</v>
+      </c>
+      <c r="P70">
+        <v>3934.2750000000001</v>
+      </c>
+      <c r="Q70">
+        <v>-626.84</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>25100</v>
+      </c>
+      <c r="T70">
+        <v>9084.7880000000005</v>
+      </c>
+      <c r="U70">
+        <v>949.10400000000004</v>
+      </c>
+      <c r="V70">
+        <v>288.77</v>
+      </c>
+      <c r="W70">
+        <v>-121.01900000000001</v>
+      </c>
+      <c r="X70">
+        <v>-724.76800000000003</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-40</v>
+      </c>
+      <c r="AA70">
+        <v>383.89100000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>354.17899999999997</v>
+      </c>
+      <c r="D71">
+        <v>5568.4189999999999</v>
+      </c>
+      <c r="E71">
+        <v>2371.7579999999998</v>
+      </c>
+      <c r="F71">
+        <v>726.40599999999995</v>
+      </c>
+      <c r="G71">
+        <v>7079.2160000000003</v>
+      </c>
+      <c r="H71">
+        <v>16121.245999999999</v>
+      </c>
+      <c r="I71">
+        <v>1329.902</v>
+      </c>
+      <c r="J71">
+        <v>3242.8649999999998</v>
+      </c>
+      <c r="K71">
+        <v>74.036000000000001</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>2844.5810000000001</v>
+      </c>
+      <c r="O71">
+        <v>6798.3270000000002</v>
+      </c>
+      <c r="P71">
+        <v>3816.9009999999998</v>
+      </c>
+      <c r="Q71">
+        <v>-188.85</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>9322.9189999999999</v>
+      </c>
+      <c r="U71">
+        <v>760.25400000000002</v>
+      </c>
+      <c r="V71">
+        <v>127.92100000000001</v>
+      </c>
+      <c r="W71">
+        <v>-121.78700000000001</v>
+      </c>
+      <c r="X71">
+        <v>-145.53200000000001</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-5.9009999999999998</v>
+      </c>
+      <c r="AA71">
+        <v>354.17899999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>683.15300000000002</v>
+      </c>
+      <c r="D72">
+        <v>6460.7740000000003</v>
+      </c>
+      <c r="E72">
+        <v>2637.7440000000001</v>
+      </c>
+      <c r="F72">
+        <v>1166.5899999999999</v>
+      </c>
+      <c r="G72">
+        <v>8401.2350000000006</v>
+      </c>
+      <c r="H72">
+        <v>17451.691999999999</v>
+      </c>
+      <c r="I72">
+        <v>1558.02</v>
+      </c>
+      <c r="J72">
+        <v>4232.2439999999997</v>
+      </c>
+      <c r="K72">
+        <v>59.167999999999999</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2750.3290000000002</v>
+      </c>
+      <c r="O72">
+        <v>7716.268</v>
+      </c>
+      <c r="P72">
+        <v>4291.4120000000003</v>
+      </c>
+      <c r="Q72">
+        <v>726.19899999999996</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>9735.4240000000009</v>
+      </c>
+      <c r="U72">
+        <v>1486.453</v>
+      </c>
+      <c r="V72">
+        <v>742.67100000000005</v>
+      </c>
+      <c r="W72">
+        <v>-121.86199999999999</v>
+      </c>
+      <c r="X72">
+        <v>174.75</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-17.526</v>
+      </c>
+      <c r="AA72">
+        <v>683.15300000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43372</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>676.65599999999995</v>
+      </c>
+      <c r="D73">
+        <v>6742.2020000000002</v>
+      </c>
+      <c r="E73">
+        <v>2636.038</v>
+      </c>
+      <c r="F73">
+        <v>1290.1500000000001</v>
+      </c>
+      <c r="G73">
+        <v>8844.2510000000002</v>
+      </c>
+      <c r="H73">
+        <v>17962.893</v>
+      </c>
+      <c r="I73">
+        <v>1447.528</v>
+      </c>
+      <c r="J73">
+        <v>4232.76</v>
+      </c>
+      <c r="K73">
+        <v>52.829000000000001</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2807.6950000000002</v>
+      </c>
+      <c r="O73">
+        <v>7788.4719999999998</v>
+      </c>
+      <c r="P73">
+        <v>4285.5889999999999</v>
+      </c>
+      <c r="Q73">
+        <v>445.702</v>
+      </c>
+      <c r="R73">
+        <v>43372</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>10174.421</v>
+      </c>
+      <c r="U73">
+        <v>1932.155</v>
+      </c>
+      <c r="V73">
+        <v>1030.867</v>
+      </c>
+      <c r="W73">
+        <v>-121.333</v>
+      </c>
+      <c r="X73">
+        <v>-310.27499999999998</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-38.113</v>
+      </c>
+      <c r="AA73">
+        <v>676.65599999999995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>646.779</v>
+      </c>
+      <c r="D74">
+        <v>6295.884</v>
+      </c>
+      <c r="E74">
+        <v>2505.5680000000002</v>
+      </c>
+      <c r="F74">
+        <v>1112.2619999999999</v>
+      </c>
+      <c r="G74">
+        <v>8636.2649999999994</v>
+      </c>
+      <c r="H74">
+        <v>17920.588</v>
+      </c>
+      <c r="I74">
+        <v>1338.3910000000001</v>
+      </c>
+      <c r="J74">
+        <v>4233.2759999999998</v>
+      </c>
+      <c r="K74">
+        <v>147.66999999999999</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2806.3</v>
+      </c>
+      <c r="O74">
+        <v>7718.62</v>
+      </c>
+      <c r="P74">
+        <v>4380.9459999999999</v>
+      </c>
+      <c r="Q74">
+        <v>-533.26900000000001</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>26300</v>
+      </c>
+      <c r="T74">
+        <v>10201.968000000001</v>
+      </c>
+      <c r="U74">
+        <v>1398.886</v>
+      </c>
+      <c r="V74">
+        <v>492.49299999999999</v>
+      </c>
+      <c r="W74">
+        <v>-120.39400000000001</v>
+      </c>
+      <c r="X74">
+        <v>-627.12</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-9.8719999999999999</v>
+      </c>
+      <c r="AA74">
+        <v>646.779</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43554</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>501.80599999999998</v>
+      </c>
+      <c r="D75">
+        <v>6096.6239999999998</v>
+      </c>
+      <c r="E75">
+        <v>2483.1379999999999</v>
+      </c>
+      <c r="F75">
+        <v>895.89200000000005</v>
+      </c>
+      <c r="G75">
+        <v>8650.3430000000008</v>
+      </c>
+      <c r="H75">
+        <v>18086.698</v>
+      </c>
+      <c r="I75">
+        <v>1429.7760000000001</v>
+      </c>
+      <c r="J75">
+        <v>4233.7920000000004</v>
+      </c>
+      <c r="K75">
+        <v>71.438000000000002</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2568.0149999999999</v>
+      </c>
+      <c r="O75">
+        <v>7584.0320000000002</v>
+      </c>
+      <c r="P75">
+        <v>4480.5590000000002</v>
+      </c>
+      <c r="Q75">
+        <v>151.92099999999999</v>
+      </c>
+      <c r="R75">
+        <v>43554</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>10502.665999999999</v>
+      </c>
+      <c r="U75">
+        <v>1550.807</v>
+      </c>
+      <c r="V75">
+        <v>650.70799999999997</v>
+      </c>
+      <c r="W75">
+        <v>-123.4</v>
+      </c>
+      <c r="X75">
+        <v>-233.238</v>
+      </c>
+      <c r="Y75">
+        <v>149.26900000000001</v>
+      </c>
+      <c r="Z75">
+        <v>17.562000000000001</v>
+      </c>
+      <c r="AA75">
+        <v>501.80599999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43645</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>386.483</v>
+      </c>
+      <c r="D76">
+        <v>5895.9859999999999</v>
+      </c>
+      <c r="E76">
+        <v>2399.239</v>
+      </c>
+      <c r="F76">
+        <v>775.49400000000003</v>
+      </c>
+      <c r="G76">
+        <v>8467.1990000000005</v>
+      </c>
+      <c r="H76">
+        <v>18126.48</v>
+      </c>
+      <c r="I76">
+        <v>1219.7919999999999</v>
+      </c>
+      <c r="J76">
+        <v>4234.308</v>
+      </c>
+      <c r="K76">
+        <v>60.087000000000003</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2380.4140000000002</v>
+      </c>
+      <c r="O76">
+        <v>7428.4719999999998</v>
+      </c>
+      <c r="P76">
+        <v>4465.259</v>
+      </c>
+      <c r="Q76">
+        <v>-119.015</v>
+      </c>
+      <c r="R76">
+        <v>43645</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>10698.008</v>
+      </c>
+      <c r="U76">
+        <v>1431.7919999999999</v>
+      </c>
+      <c r="V76">
+        <v>537.14700000000005</v>
+      </c>
+      <c r="W76">
+        <v>-123.074</v>
+      </c>
+      <c r="X76">
+        <v>-289.81</v>
+      </c>
+      <c r="Y76">
+        <v>144.96299999999999</v>
+      </c>
+      <c r="Z76">
+        <v>-11.141</v>
+      </c>
+      <c r="AA76">
+        <v>386.483</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>275.03100000000001</v>
+      </c>
+      <c r="D77">
+        <v>5464.5020000000004</v>
+      </c>
+      <c r="E77">
+        <v>2312.366</v>
+      </c>
+      <c r="F77">
+        <v>572.51099999999997</v>
+      </c>
+      <c r="G77">
+        <v>8684.2880000000005</v>
+      </c>
+      <c r="H77">
+        <v>18506.264999999999</v>
+      </c>
+      <c r="I77">
+        <v>1310.67</v>
+      </c>
+      <c r="J77">
+        <v>4214.8239999999996</v>
+      </c>
+      <c r="K77">
+        <v>47.725000000000001</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2585.9929999999999</v>
+      </c>
+      <c r="O77">
+        <v>7645.232</v>
+      </c>
+      <c r="P77">
+        <v>4457.4160000000002</v>
+      </c>
+      <c r="Q77">
+        <v>254.57300000000001</v>
+      </c>
+      <c r="R77">
+        <v>43736</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>10861.032999999999</v>
+      </c>
+      <c r="U77">
+        <v>1686.365</v>
+      </c>
+      <c r="V77">
+        <v>932.35900000000004</v>
+      </c>
+      <c r="W77">
+        <v>-122.79600000000001</v>
+      </c>
+      <c r="X77">
+        <v>-141.488</v>
+      </c>
+      <c r="Y77">
+        <v>148.62700000000001</v>
+      </c>
+      <c r="Z77">
+        <v>-216.059</v>
+      </c>
+      <c r="AA77">
+        <v>275.03100000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>107.82299999999999</v>
+      </c>
+      <c r="D78">
+        <v>5131.7460000000001</v>
+      </c>
+      <c r="E78">
+        <v>2160.1019999999999</v>
+      </c>
+      <c r="F78">
+        <v>456.46300000000002</v>
+      </c>
+      <c r="G78">
+        <v>8226.3700000000008</v>
+      </c>
+      <c r="H78">
+        <v>18344.666000000001</v>
+      </c>
+      <c r="I78">
+        <v>1085.298</v>
+      </c>
+      <c r="J78">
+        <v>4215.3410000000003</v>
+      </c>
+      <c r="K78">
+        <v>178.84399999999999</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2463.7739999999999</v>
+      </c>
+      <c r="O78">
+        <v>7553.49</v>
+      </c>
+      <c r="P78">
+        <v>4591.933</v>
+      </c>
+      <c r="Q78">
+        <v>-151.76</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>26800</v>
+      </c>
+      <c r="T78">
+        <v>10791.175999999999</v>
+      </c>
+      <c r="U78">
+        <v>1534.605</v>
+      </c>
+      <c r="V78">
+        <v>689.19899999999996</v>
+      </c>
+      <c r="W78">
+        <v>-122.792</v>
+      </c>
+      <c r="X78">
+        <v>-215.874</v>
+      </c>
+      <c r="Y78">
+        <v>150.83699999999999</v>
+      </c>
+      <c r="Z78">
+        <v>-68.644999999999996</v>
+      </c>
+      <c r="AA78">
+        <v>107.82299999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>20.331</v>
+      </c>
+      <c r="D79">
+        <v>5624.3370000000004</v>
+      </c>
+      <c r="E79">
+        <v>2273.1570000000002</v>
+      </c>
+      <c r="F79">
+        <v>629.26800000000003</v>
+      </c>
+      <c r="G79">
+        <v>7847.2510000000002</v>
+      </c>
+      <c r="H79">
+        <v>17866.061000000002</v>
+      </c>
+      <c r="I79">
+        <v>1072.6379999999999</v>
+      </c>
+      <c r="J79">
+        <v>4243.1809999999996</v>
+      </c>
+      <c r="K79">
+        <v>170.261</v>
+      </c>
+      <c r="L79">
+        <v>-9.1829999999999998</v>
+      </c>
+      <c r="M79">
+        <v>-47</v>
+      </c>
+      <c r="N79">
+        <v>2218.5720000000001</v>
+      </c>
+      <c r="O79">
+        <v>7269.9920000000002</v>
+      </c>
+      <c r="P79">
+        <v>4442.8389999999999</v>
+      </c>
+      <c r="Q79">
+        <v>-289.44799999999998</v>
+      </c>
+      <c r="R79">
+        <v>43925</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>10596.069</v>
+      </c>
+      <c r="U79">
+        <v>1245.1569999999999</v>
+      </c>
+      <c r="V79">
+        <v>201.20599999999999</v>
+      </c>
+      <c r="W79">
+        <v>-122.94</v>
+      </c>
+      <c r="X79">
+        <v>-228.614</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>150.88900000000001</v>
+      </c>
+      <c r="AA79">
+        <v>20.331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>108.881</v>
+      </c>
+      <c r="D80">
+        <v>4327.3059999999996</v>
+      </c>
+      <c r="E80">
+        <v>1888.9290000000001</v>
+      </c>
+      <c r="F80">
+        <v>377.959</v>
+      </c>
+      <c r="G80">
+        <v>8634.9639999999999</v>
+      </c>
+      <c r="H80">
+        <v>18765.965</v>
+      </c>
+      <c r="I80">
+        <v>836.37099999999998</v>
+      </c>
+      <c r="J80">
+        <v>5279.1030000000001</v>
+      </c>
+      <c r="K80">
+        <v>130.352</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1965.038</v>
+      </c>
+      <c r="O80">
+        <v>8142.48</v>
+      </c>
+      <c r="P80">
+        <v>5438.9759999999997</v>
+      </c>
+      <c r="Q80">
+        <v>1544.0319999999999</v>
+      </c>
+      <c r="R80">
+        <v>44016</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>10623.485000000001</v>
+      </c>
+      <c r="U80">
+        <v>2789.1889999999999</v>
+      </c>
+      <c r="V80">
+        <v>1148.7619999999999</v>
+      </c>
+      <c r="W80">
+        <v>-122.679</v>
+      </c>
+      <c r="X80">
+        <v>852.42600000000004</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>-108.078</v>
+      </c>
+      <c r="AA80">
+        <v>108.881</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>193.41499999999999</v>
+      </c>
+      <c r="D81">
+        <v>4927.96</v>
+      </c>
+      <c r="E81">
+        <v>2119.4209999999998</v>
+      </c>
+      <c r="F81">
+        <v>502.19499999999999</v>
+      </c>
+      <c r="G81">
+        <v>8965.8469999999998</v>
+      </c>
+      <c r="H81">
+        <v>19519.276999999998</v>
+      </c>
+      <c r="I81">
+        <v>1095.787</v>
+      </c>
+      <c r="J81">
+        <v>5452.1930000000002</v>
+      </c>
+      <c r="K81">
+        <v>178.97800000000001</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2373.2950000000001</v>
+      </c>
+      <c r="O81">
+        <v>8802.2099999999991</v>
+      </c>
+      <c r="P81">
+        <v>5641.6459999999997</v>
+      </c>
+      <c r="Q81">
+        <v>209.012</v>
+      </c>
+      <c r="R81">
+        <v>44107</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>10717.066999999999</v>
+      </c>
+      <c r="U81">
+        <v>2866.578</v>
+      </c>
+      <c r="V81">
+        <v>855.62300000000005</v>
+      </c>
+      <c r="W81">
+        <v>-123.017</v>
+      </c>
+      <c r="X81">
+        <v>-27.245000000000001</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>-160.09</v>
+      </c>
+      <c r="AA81">
+        <v>193.41499999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>398.84300000000002</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>5260.0550000000003</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>2298.85</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>739.48699999999997</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>9488.6620000000003</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>20125.394</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1221.6590000000001</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>5192.3360000000002</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>268.40600000000001</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2627.86</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>8893.5329999999994</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>5646.8019999999997</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-243.27199999999999</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>26400</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>11231.861000000001</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>2639.6709999999998</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>491.286</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-123.01900000000001</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-310.71300000000002</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>155.18899999999999</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-23.486999999999998</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>398.84300000000002</v>
       </c>
     </row>
